--- a/Material de Sonido/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Material de Sonido/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="374">
   <si>
     <t>Metadatos - Global + Estadísticas</t>
   </si>
@@ -128,9 +128,6 @@
     <t>f interesante</t>
   </si>
   <si>
-    <t>Ambiente/sala en silencio/sonido de sala</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1HRvTL-OUojRYKx9cLqiWRSbcMPOZVESs/view?usp=sharing</t>
   </si>
   <si>
@@ -893,9 +890,6 @@
     <t>00:26:88</t>
   </si>
   <si>
-    <t>Externo que sonara muy distinto al original (a partir de otra cerradura cambiando la dimension del objeto) + https://freesound.org/people/spookymodem/sounds/202092/</t>
-  </si>
-  <si>
     <t>-16,556 db</t>
   </si>
   <si>
@@ -1067,9 +1061,6 @@
     <t>SFX/ruido coger objeto/Embolsar.wav</t>
   </si>
   <si>
-    <t>hecho</t>
-  </si>
-  <si>
     <t>SFX/Movimiento de piezas puzzle/MovimientoPieza.wav</t>
   </si>
   <si>
@@ -1088,12 +1079,6 @@
     <t>SFX/Derrota en el puzzle/FallarPuzleTrompeta.wav</t>
   </si>
   <si>
-    <t>SFX/Nivel superado/PasarNivel.wav</t>
-  </si>
-  <si>
-    <t>hecho (mejorable)</t>
-  </si>
-  <si>
     <t>SFX/Boss derrotado/VencerBoss.wav</t>
   </si>
   <si>
@@ -1113,6 +1098,54 @@
   </si>
   <si>
     <t>SFX/pulsar boton de menu/sonido1</t>
+  </si>
+  <si>
+    <t>Ambiente/sala en silencio/RuidoSala.wav</t>
+  </si>
+  <si>
+    <t>Sonido sintentizado con csound, modificadas frecuencia y altura</t>
+  </si>
+  <si>
+    <t>wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32,42 dB </t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t>-16 db</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.05</t>
+  </si>
+  <si>
+    <t>Sonido sintentizado con csound, uso de oscilador, de envolvente, cambio de frecuencia exponencial</t>
+  </si>
+  <si>
+    <t>00:00:20</t>
+  </si>
+  <si>
+    <t>00:01:47</t>
+  </si>
+  <si>
+    <t>00:01:25</t>
+  </si>
+  <si>
+    <t>00:03:70</t>
+  </si>
+  <si>
+    <t>00:02:72</t>
+  </si>
+  <si>
+    <t>00:00:24</t>
+  </si>
+  <si>
+    <t>00:01:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonido sintentizado con csound, </t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1213,11 +1246,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1755,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1868,9 +1896,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2033,16 +2058,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,23 +2070,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="17" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2094,7 +2100,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2104,32 +2110,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2613,7 +2634,7 @@
       <c r="E11" s="46">
         <v>0</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="47">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2621,19 +2642,19 @@
     </row>
     <row r="12" spans="2:8" ht="13.5" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="54">
+      <c r="C12" s="53">
         <f t="shared" ref="C12:F12" si="1">SUM(C6:C11)</f>
         <v>80</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="53">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="53">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="53">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
@@ -3785,20 +3806,20 @@
       <c r="E5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>35</v>
+      <c r="F5" s="50" t="s">
+        <v>34</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="29">
         <v>44.1</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="51" t="s">
         <v>38</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>39</v>
       </c>
       <c r="K5" s="37">
         <v>4.3055555555555555E-2</v>
@@ -3823,34 +3844,34 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>42</v>
+      <c r="F6" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="29">
         <v>44.1</v>
       </c>
       <c r="I6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="56">
+      <c r="K6" s="55">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="55" t="s">
-        <v>45</v>
+      <c r="M6" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
@@ -3868,34 +3889,34 @@
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>48</v>
+      <c r="F7" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="29">
         <v>44.1</v>
       </c>
       <c r="I7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="51" t="s">
         <v>38</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>39</v>
       </c>
       <c r="K7" s="37">
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="55" t="s">
-        <v>45</v>
+      <c r="M7" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
@@ -3912,7 +3933,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -3926,13 +3947,13 @@
       <c r="J8" s="29"/>
       <c r="K8" s="37"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="55" t="s">
-        <v>45</v>
+      <c r="M8" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -3946,13 +3967,13 @@
       <c r="J9" s="29"/>
       <c r="K9" s="37"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="55" t="s">
-        <v>45</v>
+      <c r="M9" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
@@ -3966,13 +3987,13 @@
       <c r="J10" s="29"/>
       <c r="K10" s="37"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="55" t="s">
-        <v>45</v>
+      <c r="M10" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3986,13 +4007,13 @@
       <c r="J11" s="29"/>
       <c r="K11" s="37"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="55" t="s">
-        <v>45</v>
+      <c r="M11" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -4006,681 +4027,681 @@
       <c r="J12" s="29"/>
       <c r="K12" s="37"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="55" t="s">
-        <v>45</v>
+      <c r="M12" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>65</v>
+      <c r="F13" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="29">
         <v>44.1</v>
       </c>
       <c r="I13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="51" t="s">
         <v>38</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>39</v>
       </c>
       <c r="K13" s="37">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="55"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62" t="s">
+      <c r="B14" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="55" t="s">
-        <v>45</v>
+      <c r="F14" s="62"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="66"/>
-      <c r="D15" s="67">
+      <c r="B15" s="65"/>
+      <c r="D15" s="66">
         <v>1</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="66">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="66"/>
+      <c r="B16" s="65"/>
     </row>
     <row r="17" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B17" s="66"/>
+      <c r="B17" s="65"/>
     </row>
     <row r="18" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B18" s="66"/>
+      <c r="B18" s="65"/>
     </row>
     <row r="19" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B19" s="66"/>
+      <c r="B19" s="65"/>
     </row>
     <row r="20" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B20" s="66"/>
+      <c r="B20" s="65"/>
     </row>
     <row r="21" spans="2:2" ht="13.5" customHeight="1"/>
     <row r="22" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B22" s="66"/>
+      <c r="B22" s="65"/>
     </row>
     <row r="23" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B23" s="66"/>
+      <c r="B23" s="65"/>
     </row>
     <row r="24" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B24" s="66"/>
+      <c r="B24" s="65"/>
     </row>
     <row r="25" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B25" s="66"/>
+      <c r="B25" s="65"/>
     </row>
     <row r="26" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B26" s="66"/>
+      <c r="B26" s="65"/>
     </row>
     <row r="27" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B27" s="66"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B28" s="66"/>
+      <c r="B28" s="65"/>
     </row>
     <row r="29" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B29" s="66"/>
+      <c r="B29" s="65"/>
     </row>
     <row r="30" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B30" s="66"/>
+      <c r="B30" s="65"/>
     </row>
     <row r="31" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B31" s="66"/>
+      <c r="B31" s="65"/>
     </row>
     <row r="32" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B32" s="66"/>
+      <c r="B32" s="65"/>
     </row>
     <row r="33" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B33" s="66"/>
+      <c r="B33" s="65"/>
     </row>
     <row r="34" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B34" s="66"/>
+      <c r="B34" s="65"/>
     </row>
     <row r="35" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B35" s="66"/>
+      <c r="B35" s="65"/>
     </row>
     <row r="36" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B36" s="66"/>
+      <c r="B36" s="65"/>
     </row>
     <row r="37" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B37" s="66"/>
+      <c r="B37" s="65"/>
     </row>
     <row r="38" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B38" s="66"/>
+      <c r="B38" s="65"/>
     </row>
     <row r="39" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B39" s="66"/>
+      <c r="B39" s="65"/>
     </row>
     <row r="40" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B40" s="66"/>
+      <c r="B40" s="65"/>
     </row>
     <row r="41" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B41" s="66"/>
+      <c r="B41" s="65"/>
     </row>
     <row r="42" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B42" s="66"/>
+      <c r="B42" s="65"/>
     </row>
     <row r="43" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B43" s="66"/>
+      <c r="B43" s="65"/>
     </row>
     <row r="44" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B44" s="66"/>
+      <c r="B44" s="65"/>
     </row>
     <row r="45" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B45" s="66"/>
+      <c r="B45" s="65"/>
     </row>
     <row r="46" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B46" s="66"/>
+      <c r="B46" s="65"/>
     </row>
     <row r="47" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B47" s="66"/>
+      <c r="B47" s="65"/>
     </row>
     <row r="48" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B48" s="66"/>
+      <c r="B48" s="65"/>
     </row>
     <row r="49" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B49" s="66"/>
+      <c r="B49" s="65"/>
     </row>
     <row r="50" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B50" s="66"/>
+      <c r="B50" s="65"/>
     </row>
     <row r="51" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B51" s="66"/>
+      <c r="B51" s="65"/>
     </row>
     <row r="52" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B52" s="66"/>
+      <c r="B52" s="65"/>
     </row>
     <row r="53" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B53" s="66"/>
+      <c r="B53" s="65"/>
     </row>
     <row r="54" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B54" s="66"/>
+      <c r="B54" s="65"/>
     </row>
     <row r="55" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B55" s="66"/>
+      <c r="B55" s="65"/>
     </row>
     <row r="56" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B56" s="66"/>
+      <c r="B56" s="65"/>
     </row>
     <row r="57" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B57" s="66"/>
+      <c r="B57" s="65"/>
     </row>
     <row r="58" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B58" s="66"/>
+      <c r="B58" s="65"/>
     </row>
     <row r="59" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B59" s="66"/>
+      <c r="B59" s="65"/>
     </row>
     <row r="60" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B60" s="66"/>
+      <c r="B60" s="65"/>
     </row>
     <row r="61" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B61" s="66"/>
+      <c r="B61" s="65"/>
     </row>
     <row r="62" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B62" s="66"/>
+      <c r="B62" s="65"/>
     </row>
     <row r="63" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B63" s="66"/>
+      <c r="B63" s="65"/>
     </row>
     <row r="64" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B64" s="66"/>
+      <c r="B64" s="65"/>
     </row>
     <row r="65" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B65" s="66"/>
+      <c r="B65" s="65"/>
     </row>
     <row r="66" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B66" s="66"/>
+      <c r="B66" s="65"/>
     </row>
     <row r="67" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B67" s="66"/>
+      <c r="B67" s="65"/>
     </row>
     <row r="68" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B68" s="66"/>
+      <c r="B68" s="65"/>
     </row>
     <row r="69" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B69" s="66"/>
+      <c r="B69" s="65"/>
     </row>
     <row r="70" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B70" s="66"/>
+      <c r="B70" s="65"/>
     </row>
     <row r="71" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B71" s="66"/>
+      <c r="B71" s="65"/>
     </row>
     <row r="72" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B72" s="66"/>
+      <c r="B72" s="65"/>
     </row>
     <row r="73" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B73" s="66"/>
+      <c r="B73" s="65"/>
     </row>
     <row r="74" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B74" s="66"/>
+      <c r="B74" s="65"/>
     </row>
     <row r="75" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B75" s="66"/>
+      <c r="B75" s="65"/>
     </row>
     <row r="76" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B76" s="66"/>
+      <c r="B76" s="65"/>
     </row>
     <row r="77" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B77" s="66"/>
+      <c r="B77" s="65"/>
     </row>
     <row r="78" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B78" s="66"/>
+      <c r="B78" s="65"/>
     </row>
     <row r="79" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B79" s="66"/>
+      <c r="B79" s="65"/>
     </row>
     <row r="80" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B80" s="66"/>
+      <c r="B80" s="65"/>
     </row>
     <row r="81" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B81" s="66"/>
+      <c r="B81" s="65"/>
     </row>
     <row r="82" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B82" s="66"/>
+      <c r="B82" s="65"/>
     </row>
     <row r="83" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B83" s="66"/>
+      <c r="B83" s="65"/>
     </row>
     <row r="84" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B84" s="66"/>
+      <c r="B84" s="65"/>
     </row>
     <row r="85" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B85" s="66"/>
+      <c r="B85" s="65"/>
     </row>
     <row r="86" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B86" s="66"/>
+      <c r="B86" s="65"/>
     </row>
     <row r="87" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B87" s="66"/>
+      <c r="B87" s="65"/>
     </row>
     <row r="88" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B88" s="66"/>
+      <c r="B88" s="65"/>
     </row>
     <row r="89" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B89" s="66"/>
+      <c r="B89" s="65"/>
     </row>
     <row r="90" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B90" s="66"/>
+      <c r="B90" s="65"/>
     </row>
     <row r="91" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B91" s="66"/>
+      <c r="B91" s="65"/>
     </row>
     <row r="92" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B92" s="66"/>
+      <c r="B92" s="65"/>
     </row>
     <row r="93" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B93" s="66"/>
+      <c r="B93" s="65"/>
     </row>
     <row r="94" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B94" s="66"/>
+      <c r="B94" s="65"/>
     </row>
     <row r="95" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B95" s="66"/>
+      <c r="B95" s="65"/>
     </row>
     <row r="96" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B96" s="66"/>
+      <c r="B96" s="65"/>
     </row>
     <row r="97" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B97" s="66"/>
+      <c r="B97" s="65"/>
     </row>
     <row r="98" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B98" s="66"/>
+      <c r="B98" s="65"/>
     </row>
     <row r="99" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B99" s="66"/>
+      <c r="B99" s="65"/>
     </row>
     <row r="100" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B100" s="66"/>
+      <c r="B100" s="65"/>
     </row>
     <row r="101" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B101" s="66"/>
+      <c r="B101" s="65"/>
     </row>
     <row r="102" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B102" s="66"/>
+      <c r="B102" s="65"/>
     </row>
     <row r="103" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B103" s="66"/>
+      <c r="B103" s="65"/>
     </row>
     <row r="104" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B104" s="66"/>
+      <c r="B104" s="65"/>
     </row>
     <row r="105" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B105" s="66"/>
+      <c r="B105" s="65"/>
     </row>
     <row r="106" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B106" s="66"/>
+      <c r="B106" s="65"/>
     </row>
     <row r="107" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B107" s="66"/>
+      <c r="B107" s="65"/>
     </row>
     <row r="108" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B108" s="66"/>
+      <c r="B108" s="65"/>
     </row>
     <row r="109" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B109" s="66"/>
+      <c r="B109" s="65"/>
     </row>
     <row r="110" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B110" s="66"/>
+      <c r="B110" s="65"/>
     </row>
     <row r="111" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B111" s="66"/>
+      <c r="B111" s="65"/>
     </row>
     <row r="112" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B112" s="66"/>
+      <c r="B112" s="65"/>
     </row>
     <row r="113" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B113" s="66"/>
+      <c r="B113" s="65"/>
     </row>
     <row r="114" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B114" s="66"/>
+      <c r="B114" s="65"/>
     </row>
     <row r="115" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B115" s="66"/>
+      <c r="B115" s="65"/>
     </row>
     <row r="116" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B116" s="66"/>
+      <c r="B116" s="65"/>
     </row>
     <row r="117" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B117" s="66"/>
+      <c r="B117" s="65"/>
     </row>
     <row r="118" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B118" s="66"/>
+      <c r="B118" s="65"/>
     </row>
     <row r="119" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B119" s="66"/>
+      <c r="B119" s="65"/>
     </row>
     <row r="120" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B120" s="66"/>
+      <c r="B120" s="65"/>
     </row>
     <row r="121" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B121" s="66"/>
+      <c r="B121" s="65"/>
     </row>
     <row r="122" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B122" s="66"/>
+      <c r="B122" s="65"/>
     </row>
     <row r="123" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B123" s="66"/>
+      <c r="B123" s="65"/>
     </row>
     <row r="124" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B124" s="66"/>
+      <c r="B124" s="65"/>
     </row>
     <row r="125" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B125" s="66"/>
+      <c r="B125" s="65"/>
     </row>
     <row r="126" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B126" s="66"/>
+      <c r="B126" s="65"/>
     </row>
     <row r="127" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B127" s="66"/>
+      <c r="B127" s="65"/>
     </row>
     <row r="128" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B128" s="66"/>
+      <c r="B128" s="65"/>
     </row>
     <row r="129" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B129" s="66"/>
+      <c r="B129" s="65"/>
     </row>
     <row r="130" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B130" s="66"/>
+      <c r="B130" s="65"/>
     </row>
     <row r="131" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B131" s="66"/>
+      <c r="B131" s="65"/>
     </row>
     <row r="132" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B132" s="66"/>
+      <c r="B132" s="65"/>
     </row>
     <row r="133" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B133" s="66"/>
+      <c r="B133" s="65"/>
     </row>
     <row r="134" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B134" s="66"/>
+      <c r="B134" s="65"/>
     </row>
     <row r="135" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B135" s="66"/>
+      <c r="B135" s="65"/>
     </row>
     <row r="136" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B136" s="66"/>
+      <c r="B136" s="65"/>
     </row>
     <row r="137" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B137" s="66"/>
+      <c r="B137" s="65"/>
     </row>
     <row r="138" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B138" s="66"/>
+      <c r="B138" s="65"/>
     </row>
     <row r="139" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B139" s="66"/>
+      <c r="B139" s="65"/>
     </row>
     <row r="140" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B140" s="66"/>
+      <c r="B140" s="65"/>
     </row>
     <row r="141" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B141" s="66"/>
+      <c r="B141" s="65"/>
     </row>
     <row r="142" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B142" s="66"/>
+      <c r="B142" s="65"/>
     </row>
     <row r="143" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B143" s="66"/>
+      <c r="B143" s="65"/>
     </row>
     <row r="144" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B144" s="66"/>
+      <c r="B144" s="65"/>
     </row>
     <row r="145" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B145" s="66"/>
+      <c r="B145" s="65"/>
     </row>
     <row r="146" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B146" s="66"/>
+      <c r="B146" s="65"/>
     </row>
     <row r="147" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B147" s="66"/>
+      <c r="B147" s="65"/>
     </row>
     <row r="148" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B148" s="66"/>
+      <c r="B148" s="65"/>
     </row>
     <row r="149" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B149" s="66"/>
+      <c r="B149" s="65"/>
     </row>
     <row r="150" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B150" s="66"/>
+      <c r="B150" s="65"/>
     </row>
     <row r="151" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B151" s="66"/>
+      <c r="B151" s="65"/>
     </row>
     <row r="152" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B152" s="66"/>
+      <c r="B152" s="65"/>
     </row>
     <row r="153" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B153" s="66"/>
+      <c r="B153" s="65"/>
     </row>
     <row r="154" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B154" s="66"/>
+      <c r="B154" s="65"/>
     </row>
     <row r="155" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B155" s="66"/>
+      <c r="B155" s="65"/>
     </row>
     <row r="156" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B156" s="66"/>
+      <c r="B156" s="65"/>
     </row>
     <row r="157" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B157" s="66"/>
+      <c r="B157" s="65"/>
     </row>
     <row r="158" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B158" s="66"/>
+      <c r="B158" s="65"/>
     </row>
     <row r="159" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B159" s="66"/>
+      <c r="B159" s="65"/>
     </row>
     <row r="160" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B160" s="66"/>
+      <c r="B160" s="65"/>
     </row>
     <row r="161" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B161" s="66"/>
+      <c r="B161" s="65"/>
     </row>
     <row r="162" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B162" s="66"/>
+      <c r="B162" s="65"/>
     </row>
     <row r="163" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B163" s="66"/>
+      <c r="B163" s="65"/>
     </row>
     <row r="164" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B164" s="66"/>
+      <c r="B164" s="65"/>
     </row>
     <row r="165" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B165" s="66"/>
+      <c r="B165" s="65"/>
     </row>
     <row r="166" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B166" s="66"/>
+      <c r="B166" s="65"/>
     </row>
     <row r="167" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B167" s="66"/>
+      <c r="B167" s="65"/>
     </row>
     <row r="168" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B168" s="66"/>
+      <c r="B168" s="65"/>
     </row>
     <row r="169" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B169" s="66"/>
+      <c r="B169" s="65"/>
     </row>
     <row r="170" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B170" s="66"/>
+      <c r="B170" s="65"/>
     </row>
     <row r="171" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B171" s="66"/>
+      <c r="B171" s="65"/>
     </row>
     <row r="172" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B172" s="66"/>
+      <c r="B172" s="65"/>
     </row>
     <row r="173" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B173" s="66"/>
+      <c r="B173" s="65"/>
     </row>
     <row r="174" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B174" s="66"/>
+      <c r="B174" s="65"/>
     </row>
     <row r="175" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B175" s="66"/>
+      <c r="B175" s="65"/>
     </row>
     <row r="176" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B176" s="66"/>
+      <c r="B176" s="65"/>
     </row>
     <row r="177" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B177" s="66"/>
+      <c r="B177" s="65"/>
     </row>
     <row r="178" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B178" s="66"/>
+      <c r="B178" s="65"/>
     </row>
     <row r="179" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B179" s="66"/>
+      <c r="B179" s="65"/>
     </row>
     <row r="180" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B180" s="66"/>
+      <c r="B180" s="65"/>
     </row>
     <row r="181" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B181" s="66"/>
+      <c r="B181" s="65"/>
     </row>
     <row r="182" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B182" s="66"/>
+      <c r="B182" s="65"/>
     </row>
     <row r="183" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B183" s="66"/>
+      <c r="B183" s="65"/>
     </row>
     <row r="184" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B184" s="66"/>
+      <c r="B184" s="65"/>
     </row>
     <row r="185" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B185" s="66"/>
+      <c r="B185" s="65"/>
     </row>
     <row r="186" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B186" s="66"/>
+      <c r="B186" s="65"/>
     </row>
     <row r="187" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B187" s="66"/>
+      <c r="B187" s="65"/>
     </row>
     <row r="188" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B188" s="66"/>
+      <c r="B188" s="65"/>
     </row>
     <row r="189" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B189" s="66"/>
+      <c r="B189" s="65"/>
     </row>
     <row r="190" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B190" s="66"/>
+      <c r="B190" s="65"/>
     </row>
     <row r="191" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B191" s="66"/>
+      <c r="B191" s="65"/>
     </row>
     <row r="192" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B192" s="66"/>
+      <c r="B192" s="65"/>
     </row>
     <row r="193" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B193" s="66"/>
+      <c r="B193" s="65"/>
     </row>
     <row r="194" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B194" s="66"/>
+      <c r="B194" s="65"/>
     </row>
     <row r="195" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B195" s="66"/>
+      <c r="B195" s="65"/>
     </row>
     <row r="196" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B196" s="66"/>
+      <c r="B196" s="65"/>
     </row>
     <row r="197" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B197" s="66"/>
+      <c r="B197" s="65"/>
     </row>
     <row r="198" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B198" s="66"/>
+      <c r="B198" s="65"/>
     </row>
     <row r="199" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B199" s="66"/>
+      <c r="B199" s="65"/>
     </row>
     <row r="200" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B200" s="66"/>
+      <c r="B200" s="65"/>
     </row>
     <row r="201" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B201" s="66"/>
+      <c r="B201" s="65"/>
     </row>
     <row r="202" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B202" s="66"/>
+      <c r="B202" s="65"/>
     </row>
     <row r="203" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B203" s="66"/>
+      <c r="B203" s="65"/>
     </row>
     <row r="204" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B204" s="66"/>
+      <c r="B204" s="65"/>
     </row>
     <row r="205" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B205" s="66"/>
+      <c r="B205" s="65"/>
     </row>
     <row r="206" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B206" s="66"/>
+      <c r="B206" s="65"/>
     </row>
     <row r="207" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B207" s="66"/>
+      <c r="B207" s="65"/>
     </row>
     <row r="208" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B208" s="66"/>
+      <c r="B208" s="65"/>
     </row>
     <row r="209" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B209" s="66"/>
+      <c r="B209" s="65"/>
     </row>
     <row r="210" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B210" s="66"/>
+      <c r="B210" s="65"/>
     </row>
     <row r="211" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B211" s="66"/>
+      <c r="B211" s="65"/>
     </row>
     <row r="212" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B212" s="66"/>
+      <c r="B212" s="65"/>
     </row>
     <row r="213" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B213" s="66"/>
+      <c r="B213" s="65"/>
     </row>
     <row r="214" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B214" s="66"/>
+      <c r="B214" s="65"/>
     </row>
     <row r="215" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B215" s="66"/>
+      <c r="B215" s="65"/>
     </row>
     <row r="216" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B216" s="66"/>
+      <c r="B216" s="65"/>
     </row>
     <row r="217" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B217" s="66"/>
+      <c r="B217" s="65"/>
     </row>
     <row r="218" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B218" s="66"/>
+      <c r="B218" s="65"/>
     </row>
     <row r="219" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B219" s="66"/>
+      <c r="B219" s="65"/>
     </row>
     <row r="220" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B220" s="66"/>
+      <c r="B220" s="65"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="222" spans="2:2" ht="15.75" customHeight="1"/>
@@ -5478,7 +5499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5598,483 +5621,497 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B5" s="41" t="s">
-        <v>34</v>
+      <c r="B5" s="92" t="s">
+        <v>358</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="45"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="N5" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="55" t="s">
-        <v>41</v>
+      <c r="F5" s="141" t="s">
+        <v>359</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" s="48">
+        <v>48</v>
+      </c>
+      <c r="I5" s="48">
+        <v>32</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="69">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="L5" s="137" t="s">
+        <v>361</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="43"/>
       <c r="E6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="58">
+      <c r="F6" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="57">
         <v>11.025</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="57">
         <v>32</v>
       </c>
-      <c r="J6" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="59">
+      <c r="J6" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="58">
         <v>2.6157407407407407E-2</v>
       </c>
-      <c r="L6" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="55" t="s">
-        <v>41</v>
+      <c r="L6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="58">
+      <c r="F7" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="57">
         <v>11.025</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="57">
         <v>32</v>
       </c>
-      <c r="J7" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="60">
+      <c r="J7" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="59">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L7" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="55" t="s">
-        <v>41</v>
+      <c r="L7" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="58">
+      <c r="F8" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="57">
         <v>11.025</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="57">
         <v>32</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="58">
+        <v>1.5509259259259259E-3</v>
+      </c>
+      <c r="L8" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="59">
-        <v>1.5509259259259259E-3</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="55"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="58">
+      <c r="F9" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="57">
         <v>11.025</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="57">
         <v>32</v>
       </c>
-      <c r="J9" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="60">
+      <c r="J9" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="59">
         <v>2.476851851851852E-3</v>
       </c>
-      <c r="L9" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="55"/>
+      <c r="L9" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="58">
+      <c r="F10" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="57">
         <v>11.025</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="57">
         <v>32</v>
       </c>
-      <c r="J10" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="59">
+      <c r="J10" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="58">
         <v>2.5115740740740741E-3</v>
       </c>
-      <c r="L10" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="55"/>
+      <c r="L10" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="58">
+      <c r="F11" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="57">
         <v>11.025</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="57">
         <v>32</v>
       </c>
-      <c r="J11" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="59">
+      <c r="J11" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="58">
         <v>2.4537037037037036E-3</v>
       </c>
-      <c r="L11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="55"/>
+      <c r="L11" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="58">
+      <c r="F12" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="57">
         <v>11.025</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="57">
         <v>32</v>
       </c>
-      <c r="J12" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="59">
+      <c r="J12" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="58">
         <v>4.8958333333333336E-3</v>
       </c>
-      <c r="L12" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>41</v>
+      <c r="L12" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="58">
+      <c r="F13" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="57">
         <v>11.025</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="57">
         <v>32</v>
       </c>
-      <c r="J13" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="60">
+      <c r="J13" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="59">
         <v>2.3958333333333331E-3</v>
       </c>
-      <c r="L13" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="55" t="s">
-        <v>41</v>
+      <c r="L13" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="58">
+      <c r="F14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="57">
         <v>11.025</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="57">
         <v>32</v>
       </c>
-      <c r="J14" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="59">
+      <c r="J14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="58">
         <v>1.337962962962963E-2</v>
       </c>
-      <c r="L14" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" s="55" t="s">
-        <v>41</v>
+      <c r="L14" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="E15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="57">
+        <v>11.025</v>
+      </c>
+      <c r="I15" s="57">
+        <v>32</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="58">
+        <v>2.3553240740740739E-2</v>
+      </c>
+      <c r="L15" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="58">
-        <v>11.025</v>
-      </c>
-      <c r="I15" s="58">
-        <v>32</v>
-      </c>
-      <c r="J15" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="59">
-        <v>2.3553240740740739E-2</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="55" t="s">
-        <v>41</v>
+      <c r="O15" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="45"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="O16" s="55" t="s">
-        <v>41</v>
+      <c r="F16" s="68"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="O16" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="13.5" customHeight="1">
       <c r="B17" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="45"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="O17" s="55" t="s">
-        <v>41</v>
+      <c r="F17" s="68"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="O17" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="13.5" customHeight="1">
       <c r="B18" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="58">
+      <c r="F18" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="57">
         <v>11.025</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="57">
         <v>32</v>
       </c>
-      <c r="J18" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="59">
+      <c r="J18" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="58">
         <v>7.137731481481481E-2</v>
       </c>
-      <c r="L18" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18" s="55" t="s">
-        <v>41</v>
+      <c r="L18" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="13.5" customHeight="1">
       <c r="B19" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
       <c r="E19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="57">
+        <v>11.025</v>
+      </c>
+      <c r="I19" s="48">
+        <v>32</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="69">
+        <v>1.369212962962963E-2</v>
+      </c>
+      <c r="L19" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="58">
-        <v>11.025</v>
-      </c>
-      <c r="I19" s="49">
-        <v>32</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="70">
-        <v>1.369212962962963E-2</v>
-      </c>
-      <c r="L19" s="68" t="s">
-        <v>86</v>
-      </c>
       <c r="M19" s="3"/>
-      <c r="O19" s="55" t="s">
-        <v>41</v>
+      <c r="O19" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B20" s="61"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="76"/>
-      <c r="O20" s="55" t="s">
-        <v>41</v>
+      <c r="B20" s="60"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
+      <c r="O20" s="54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="13.5" customHeight="1">
@@ -7894,7 +7931,7 @@
     <hyperlink ref="N5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7923,15 +7960,15 @@
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="77"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="10"/>
@@ -7980,7 +8017,7 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="78"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
@@ -7990,7 +8027,7 @@
       <c r="E3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="79"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="24"/>
       <c r="H3" s="26" t="s">
         <v>22</v>
@@ -8002,938 +8039,938 @@
       <c r="K3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="80"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="85"/>
       <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="H5" s="57">
+        <v>22.05</v>
+      </c>
+      <c r="I5" s="87">
+        <v>24</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="59">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="L5" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="58">
-        <v>22.05</v>
-      </c>
-      <c r="I5" s="88">
-        <v>24</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="60">
-        <v>2.1527777777777778E-3</v>
-      </c>
-      <c r="L5" s="89" t="s">
+      <c r="N5" s="54" t="s">
         <v>92</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="58">
+      <c r="H6" s="57">
         <v>22.05</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="87">
         <v>24</v>
       </c>
-      <c r="J6" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="60">
+      <c r="J6" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="59">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L6" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="55" t="s">
-        <v>93</v>
+      <c r="L6" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="58">
+      <c r="F7" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="57">
         <v>22.05</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="87">
         <v>24</v>
       </c>
-      <c r="J7" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="60">
+      <c r="J7" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="59">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L7" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="55" t="s">
-        <v>93</v>
+      <c r="L7" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="58">
+      <c r="F8" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="57">
         <v>22.05</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="87">
         <v>24</v>
       </c>
-      <c r="J8" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="60">
+      <c r="J8" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="59">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L8" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="55" t="s">
-        <v>93</v>
+      <c r="L8" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="90"/>
-      <c r="N9" s="55" t="s">
-        <v>93</v>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="89"/>
+      <c r="N9" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="90"/>
-      <c r="N10" s="55" t="s">
-        <v>93</v>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="89"/>
+      <c r="N10" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="58">
+      <c r="F11" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="57">
         <v>22.05</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="87">
         <v>24</v>
       </c>
-      <c r="J11" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="91">
+      <c r="J11" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="90">
         <v>8.6805555555555551E-4</v>
       </c>
-      <c r="L11" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="55" t="s">
-        <v>93</v>
+      <c r="L11" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="58">
+      <c r="F12" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="57">
         <v>22.05</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="87">
         <v>24</v>
       </c>
-      <c r="J12" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="91">
+      <c r="J12" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="90">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="L12" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="N12" s="55"/>
+      <c r="L12" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="54"/>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="58">
+      <c r="F13" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="57">
         <v>22.05</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="87">
         <v>24</v>
       </c>
-      <c r="J13" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="91">
+      <c r="J13" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="90">
         <v>1.0069444444444444E-3</v>
       </c>
-      <c r="L13" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="55"/>
+      <c r="L13" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="54"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="58">
+      <c r="F14" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="57">
         <v>22.05</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="87">
         <v>24</v>
       </c>
-      <c r="J14" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="91">
+      <c r="J14" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="90">
         <v>9.3749999999999997E-4</v>
       </c>
-      <c r="L14" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="55"/>
+      <c r="L14" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="54"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="58">
+      <c r="F15" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="57">
         <v>22.05</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="87">
         <v>24</v>
       </c>
-      <c r="J15" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="91">
+      <c r="J15" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="90">
         <v>7.9861111111111116E-4</v>
       </c>
-      <c r="L15" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="N15" s="55"/>
+      <c r="L15" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="58">
+      <c r="F16" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="57">
         <v>22.05</v>
       </c>
-      <c r="I16" s="88">
+      <c r="I16" s="87">
         <v>24</v>
       </c>
-      <c r="J16" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="60">
+      <c r="J16" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="59">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="L16" s="90" t="s">
+      <c r="L16" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B17" s="92" t="s">
         <v>113</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="93" t="s">
-        <v>114</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
       <c r="E17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="58">
+      <c r="H17" s="57">
         <v>22.05</v>
       </c>
-      <c r="I17" s="88">
+      <c r="I17" s="87">
         <v>24</v>
       </c>
-      <c r="J17" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="94">
+      <c r="J17" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="93">
         <v>1.4004629629629629E-3</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B18" s="92" t="s">
         <v>115</v>
-      </c>
-      <c r="N17" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="93" t="s">
-        <v>116</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="58">
+      <c r="H18" s="57">
         <v>22.05</v>
       </c>
-      <c r="I18" s="88">
+      <c r="I18" s="87">
         <v>24</v>
       </c>
-      <c r="J18" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="94">
+      <c r="J18" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="93">
         <v>1.2962962962962963E-3</v>
       </c>
-      <c r="L18" s="95" t="s">
+      <c r="L18" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="54"/>
+    </row>
+    <row r="19" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B19" s="92" t="s">
         <v>117</v>
-      </c>
-      <c r="N18" s="55"/>
-    </row>
-    <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="93" t="s">
-        <v>118</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
       <c r="E19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="58">
+      <c r="H19" s="57">
         <v>22.05</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="87">
         <v>24</v>
       </c>
-      <c r="J19" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="94">
+      <c r="J19" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="93">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="L19" s="95" t="s">
+      <c r="L19" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="54"/>
+    </row>
+    <row r="20" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B20" s="92" t="s">
         <v>119</v>
-      </c>
-      <c r="N19" s="55"/>
-    </row>
-    <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="93" t="s">
-        <v>120</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="58">
+      <c r="H20" s="57">
         <v>22.05</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="87">
         <v>24</v>
       </c>
-      <c r="J20" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="94">
+      <c r="J20" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="93">
         <v>3.449074074074074E-3</v>
       </c>
-      <c r="L20" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="N20" s="55"/>
+      <c r="L20" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="54"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="58">
+      <c r="F21" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="57">
         <v>22.05</v>
       </c>
-      <c r="I21" s="88">
+      <c r="I21" s="87">
         <v>24</v>
       </c>
-      <c r="J21" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="59">
+      <c r="J21" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="58">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="L21" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="N21" s="55" t="s">
-        <v>93</v>
+      <c r="L21" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="58">
+      <c r="H22" s="57">
         <v>22.05</v>
       </c>
-      <c r="I22" s="88">
+      <c r="I22" s="87">
         <v>24</v>
       </c>
-      <c r="J22" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="60">
+      <c r="J22" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="59">
         <v>6.8287037037037036E-4</v>
       </c>
-      <c r="L22" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="N22" s="55" t="s">
-        <v>93</v>
+      <c r="L22" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
       <c r="E23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="87" t="s">
+      <c r="F23" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="58">
+      <c r="H23" s="57">
         <v>22.05</v>
       </c>
-      <c r="I23" s="88">
+      <c r="I23" s="87">
         <v>24</v>
       </c>
-      <c r="J23" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="59">
+      <c r="J23" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="58">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="L23" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="N23" s="55" t="s">
-        <v>93</v>
+      <c r="L23" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="58">
+      <c r="F24" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="57">
         <v>16</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="57">
         <v>32</v>
       </c>
-      <c r="J24" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="59">
+      <c r="J24" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="58">
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="L24" s="89" t="s">
+      <c r="L24" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="54" t="s">
         <v>129</v>
-      </c>
-      <c r="N24" s="55" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
       <c r="E25" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="58">
+      <c r="F25" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="57">
         <v>16</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="57">
         <v>32</v>
       </c>
-      <c r="J25" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="59">
+      <c r="J25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="58">
         <v>1.5277777777777779E-3</v>
       </c>
-      <c r="L25" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="N25" s="55" t="s">
-        <v>130</v>
+      <c r="L25" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="58">
+      <c r="F26" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="57">
         <v>16</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="57">
         <v>32</v>
       </c>
-      <c r="J26" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="59">
+      <c r="J26" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="58">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="L26" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="N26" s="55" t="s">
-        <v>130</v>
+      <c r="L26" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" s="54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="58">
+      <c r="F27" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="57">
         <v>16</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="57">
         <v>32</v>
       </c>
-      <c r="J27" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="59">
+      <c r="J27" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="58">
         <v>7.5231481481481482E-4</v>
       </c>
-      <c r="L27" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="N27" s="55" t="s">
-        <v>130</v>
+      <c r="L27" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" s="54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
       <c r="B28" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="58">
+      <c r="F28" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="57">
         <v>16</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="57">
         <v>32</v>
       </c>
-      <c r="J28" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="59">
+      <c r="J28" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="58">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="L28" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="N28" s="55" t="s">
-        <v>130</v>
+      <c r="L28" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="N28" s="54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="B29" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
       <c r="E29" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="58">
+      <c r="F29" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="57">
         <v>22.05</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="57">
         <v>24</v>
       </c>
-      <c r="J29" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="59">
+      <c r="J29" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="58">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L29" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="N29" s="55" t="s">
-        <v>93</v>
+      <c r="L29" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
       <c r="B30" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="58">
+      <c r="F30" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="57">
         <v>22.05</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="57">
         <v>24</v>
       </c>
-      <c r="J30" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="59">
+      <c r="J30" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="58">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L30" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="N30" s="55" t="s">
-        <v>93</v>
+      <c r="L30" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
       <c r="B31" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="58">
+      <c r="F31" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="57">
         <v>16</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="57">
         <v>32</v>
       </c>
-      <c r="J31" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="59">
+      <c r="J31" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="58">
         <v>5.5439814814814813E-3</v>
       </c>
-      <c r="L31" s="68" t="s">
+      <c r="L31" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="N31" s="54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B32" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="61" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="73">
+        <v>16</v>
+      </c>
+      <c r="I32" s="73">
+        <v>32</v>
+      </c>
+      <c r="J32" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="74">
+        <v>3.5185185185185185E-3</v>
+      </c>
+      <c r="L32" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="74">
-        <v>16</v>
-      </c>
-      <c r="I32" s="74">
-        <v>32</v>
-      </c>
-      <c r="J32" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="75">
-        <v>3.5185185185185185E-3</v>
-      </c>
-      <c r="L32" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="N32" s="55" t="s">
-        <v>130</v>
+      <c r="N32" s="54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B33" s="97"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="2">
         <f t="shared" ref="C33:D33" si="0">COUNTA(C6:C32)</f>
         <v>0</v>
@@ -8948,13 +8985,13 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B34" s="97"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B35" s="97"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -10751,7 +10788,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="31.5" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -10804,7 +10841,7 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="78"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
@@ -10835,7 +10872,7 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="98"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -10848,18 +10885,18 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="99" t="s">
-        <v>148</v>
+      <c r="F5" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="43">
         <v>22.05</v>
@@ -10870,30 +10907,30 @@
       <c r="J5" s="43">
         <v>1</v>
       </c>
-      <c r="K5" s="100" t="s">
+      <c r="K5" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>93</v>
+      <c r="N5" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="99" t="s">
-        <v>148</v>
+      <c r="F6" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="43">
         <v>22.05</v>
@@ -10904,28 +10941,28 @@
       <c r="J6" s="43">
         <v>1</v>
       </c>
-      <c r="K6" s="102" t="s">
+      <c r="K6" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
-      <c r="F7" s="99" t="s">
-        <v>148</v>
+      <c r="F7" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="43">
         <v>22.05</v>
@@ -10936,30 +10973,30 @@
       <c r="J7" s="43">
         <v>1</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="55" t="s">
-        <v>93</v>
+      <c r="N7" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
-      <c r="F8" s="99" t="s">
-        <v>148</v>
+      <c r="F8" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="43">
         <v>22.05</v>
@@ -10970,30 +11007,30 @@
       <c r="J8" s="43">
         <v>1</v>
       </c>
-      <c r="K8" s="100" t="s">
+      <c r="K8" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="L8" s="103" t="s">
+      <c r="N8" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B9" s="92" t="s">
         <v>159</v>
-      </c>
-      <c r="N8" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="93" t="s">
-        <v>160</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="99" t="s">
-        <v>148</v>
+      <c r="F9" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="43">
         <v>22.05</v>
@@ -11004,28 +11041,28 @@
       <c r="J9" s="43">
         <v>1</v>
       </c>
-      <c r="K9" s="100" t="s">
+      <c r="K9" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="L9" s="103" t="s">
+      <c r="N9" s="54"/>
+    </row>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B10" s="92" t="s">
         <v>162</v>
-      </c>
-      <c r="N9" s="55"/>
-    </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="93" t="s">
-        <v>163</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="99" t="s">
-        <v>148</v>
+      <c r="F10" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="43">
         <v>22.05</v>
@@ -11036,30 +11073,30 @@
       <c r="J10" s="43">
         <v>1</v>
       </c>
-      <c r="K10" s="100" t="s">
+      <c r="K10" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="L10" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="N10" s="55" t="s">
-        <v>93</v>
+      <c r="N10" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="99" t="s">
-        <v>148</v>
+      <c r="F11" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="43">
         <v>22.05</v>
@@ -11070,30 +11107,30 @@
       <c r="J11" s="43">
         <v>1</v>
       </c>
-      <c r="K11" s="102" t="s">
+      <c r="K11" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="103" t="s">
-        <v>168</v>
-      </c>
-      <c r="N11" s="55" t="s">
-        <v>93</v>
+      <c r="N11" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="99" t="s">
-        <v>148</v>
+      <c r="F12" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="43">
         <v>22.05</v>
@@ -11104,30 +11141,30 @@
       <c r="J12" s="43">
         <v>1</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="L12" s="103" t="s">
-        <v>171</v>
-      </c>
-      <c r="N12" s="55" t="s">
-        <v>93</v>
+      <c r="N12" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="99" t="s">
-        <v>148</v>
+      <c r="F13" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="43">
         <v>22.05</v>
@@ -11138,30 +11175,30 @@
       <c r="J13" s="43">
         <v>1</v>
       </c>
-      <c r="K13" s="102" t="s">
+      <c r="K13" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="N13" s="55" t="s">
-        <v>93</v>
+      <c r="N13" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="99" t="s">
-        <v>148</v>
+      <c r="F14" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="43">
         <v>22.05</v>
@@ -11172,30 +11209,30 @@
       <c r="J14" s="43">
         <v>1</v>
       </c>
-      <c r="K14" s="102" t="s">
+      <c r="K14" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="103" t="s">
-        <v>177</v>
-      </c>
-      <c r="N14" s="55" t="s">
-        <v>93</v>
+      <c r="N14" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="99" t="s">
-        <v>148</v>
+      <c r="F15" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="43">
         <v>22.05</v>
@@ -11206,30 +11243,30 @@
       <c r="J15" s="43">
         <v>1</v>
       </c>
-      <c r="K15" s="102" t="s">
+      <c r="K15" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="L15" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="N15" s="55" t="s">
-        <v>93</v>
+      <c r="N15" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="99" t="s">
-        <v>148</v>
+      <c r="F16" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="43">
         <v>22.05</v>
@@ -11240,30 +11277,30 @@
       <c r="J16" s="43">
         <v>1</v>
       </c>
-      <c r="K16" s="102" t="s">
+      <c r="K16" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>93</v>
+      <c r="N16" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="99" t="s">
-        <v>148</v>
+      <c r="F17" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="43">
         <v>22.05</v>
@@ -11274,28 +11311,28 @@
       <c r="J17" s="43">
         <v>1</v>
       </c>
-      <c r="K17" s="102" t="s">
+      <c r="K17" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="L17" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="N17" s="55"/>
+      <c r="N17" s="54"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="99" t="s">
-        <v>148</v>
+      <c r="F18" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="43">
         <v>22.05</v>
@@ -11306,28 +11343,28 @@
       <c r="J18" s="43">
         <v>1</v>
       </c>
-      <c r="K18" s="102" t="s">
+      <c r="K18" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="L18" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="N18" s="55"/>
+      <c r="N18" s="54"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="99" t="s">
-        <v>148</v>
+      <c r="F19" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" s="43">
         <v>22.05</v>
@@ -11338,70 +11375,70 @@
       <c r="J19" s="43">
         <v>1</v>
       </c>
-      <c r="K19" s="102" t="s">
+      <c r="K19" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="L19" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="N19" s="55" t="s">
-        <v>93</v>
+      <c r="N19" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="103"/>
-      <c r="N20" s="55" t="s">
-        <v>93</v>
+      <c r="K20" s="101"/>
+      <c r="L20" s="102"/>
+      <c r="N20" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="99"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="103"/>
-      <c r="N21" s="55" t="s">
-        <v>93</v>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
+      <c r="N21" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="99" t="s">
-        <v>148</v>
+      <c r="F22" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="43">
         <v>22.05</v>
@@ -11412,31 +11449,31 @@
       <c r="J22" s="43">
         <v>1</v>
       </c>
-      <c r="K22" s="102" t="s">
+      <c r="K22" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="L22" s="103" t="s">
-        <v>197</v>
-      </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="55" t="s">
-        <v>93</v>
+      <c r="N22" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="99" t="s">
-        <v>148</v>
+      <c r="F23" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="43">
         <v>22.05</v>
@@ -11447,31 +11484,31 @@
       <c r="J23" s="43">
         <v>1</v>
       </c>
-      <c r="K23" s="102" t="s">
+      <c r="K23" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="L23" s="103" t="s">
-        <v>200</v>
-      </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="55" t="s">
-        <v>93</v>
+      <c r="N23" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="99" t="s">
-        <v>148</v>
+      <c r="F24" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="43">
         <v>22.05</v>
@@ -11482,31 +11519,31 @@
       <c r="J24" s="43">
         <v>1</v>
       </c>
-      <c r="K24" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="103" t="s">
-        <v>202</v>
+      <c r="K24" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" s="102" t="s">
+        <v>201</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="55" t="s">
-        <v>93</v>
+      <c r="N24" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="99" t="s">
-        <v>148</v>
+      <c r="F25" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="43">
         <v>22.05</v>
@@ -11517,31 +11554,31 @@
       <c r="J25" s="43">
         <v>1</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="L25" s="103" t="s">
-        <v>205</v>
-      </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="55" t="s">
-        <v>93</v>
+      <c r="N25" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="99" t="s">
-        <v>148</v>
+      <c r="F26" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="43">
         <v>22.05</v>
@@ -11552,34 +11589,34 @@
       <c r="J26" s="43">
         <v>1</v>
       </c>
-      <c r="K26" s="102" t="s">
+      <c r="K26" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="L26" s="103" t="s">
-        <v>208</v>
-      </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="55" t="s">
-        <v>93</v>
+      <c r="N26" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="99" t="s">
+      <c r="F27" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I27" s="43">
         <v>24</v>
@@ -11587,34 +11624,34 @@
       <c r="J27" s="43">
         <v>1</v>
       </c>
-      <c r="K27" s="100" t="s">
+      <c r="K27" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="L27" s="101" t="s">
-        <v>213</v>
-      </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="55" t="s">
-        <v>93</v>
+      <c r="N27" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
       <c r="B28" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="99" t="s">
+      <c r="F28" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I28" s="43">
         <v>24</v>
@@ -11622,34 +11659,34 @@
       <c r="J28" s="43">
         <v>1</v>
       </c>
-      <c r="K28" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="L28" s="101" t="s">
-        <v>213</v>
+      <c r="K28" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="55" t="s">
-        <v>93</v>
+      <c r="N28" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="B29" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I29" s="43">
         <v>24</v>
@@ -11657,34 +11694,34 @@
       <c r="J29" s="43">
         <v>1</v>
       </c>
-      <c r="K29" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="L29" s="101" t="s">
-        <v>213</v>
+      <c r="K29" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="M29" s="3"/>
-      <c r="N29" s="55" t="s">
-        <v>93</v>
+      <c r="N29" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
       <c r="B30" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="99" t="s">
+      <c r="F30" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I30" s="43">
         <v>24</v>
@@ -11692,34 +11729,34 @@
       <c r="J30" s="43">
         <v>1</v>
       </c>
-      <c r="K30" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="L30" s="101" t="s">
-        <v>213</v>
+      <c r="K30" s="99" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="55" t="s">
-        <v>93</v>
+      <c r="N30" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
       <c r="B31" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="99" t="s">
+      <c r="F31" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G31" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I31" s="43">
         <v>24</v>
@@ -11727,34 +11764,34 @@
       <c r="J31" s="43">
         <v>1</v>
       </c>
-      <c r="K31" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="L31" s="101" t="s">
-        <v>213</v>
+      <c r="K31" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="55" t="s">
-        <v>93</v>
+      <c r="N31" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
       <c r="B32" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="99" t="s">
+      <c r="F32" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G32" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I32" s="43">
         <v>24</v>
@@ -11762,34 +11799,34 @@
       <c r="J32" s="43">
         <v>1</v>
       </c>
-      <c r="K32" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="101" t="s">
-        <v>213</v>
+      <c r="K32" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="55" t="s">
-        <v>93</v>
+      <c r="N32" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="13.5" customHeight="1">
       <c r="B33" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="99" t="s">
+      <c r="F33" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G33" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I33" s="43">
         <v>24</v>
@@ -11797,34 +11834,34 @@
       <c r="J33" s="43">
         <v>1</v>
       </c>
-      <c r="K33" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="L33" s="101" t="s">
-        <v>213</v>
+      <c r="K33" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="M33" s="3"/>
-      <c r="N33" s="55" t="s">
-        <v>93</v>
+      <c r="N33" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="13.5" customHeight="1">
       <c r="B34" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="99" t="s">
+      <c r="F34" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G34" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I34" s="43">
         <v>24</v>
@@ -11832,33 +11869,33 @@
       <c r="J34" s="43">
         <v>1</v>
       </c>
-      <c r="K34" s="100" t="s">
+      <c r="K34" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="L34" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="N34" s="55" t="s">
-        <v>93</v>
+      <c r="N34" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="13.5" customHeight="1">
       <c r="B35" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
-      <c r="F35" s="99" t="s">
+      <c r="F35" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I35" s="43">
         <v>24</v>
@@ -11866,33 +11903,33 @@
       <c r="J35" s="43">
         <v>1</v>
       </c>
-      <c r="K35" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="L35" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="N35" s="55" t="s">
-        <v>93</v>
+      <c r="K35" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="N35" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="13.5" customHeight="1">
       <c r="B36" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="99" t="s">
+      <c r="F36" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I36" s="43">
         <v>24</v>
@@ -11900,34 +11937,34 @@
       <c r="J36" s="43">
         <v>1</v>
       </c>
-      <c r="K36" s="100" t="s">
-        <v>232</v>
-      </c>
-      <c r="L36" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="N36" s="55" t="s">
-        <v>93</v>
+      <c r="K36" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="L36" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>92</v>
       </c>
       <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="2:17" ht="13.5" customHeight="1">
       <c r="B37" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
-      <c r="F37" s="99" t="s">
-        <v>234</v>
+      <c r="F37" s="98" t="s">
+        <v>233</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I37" s="43">
         <v>24</v>
@@ -11935,33 +11972,33 @@
       <c r="J37" s="43">
         <v>1</v>
       </c>
-      <c r="K37" s="100" t="s">
+      <c r="K37" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="L37" s="101" t="s">
-        <v>236</v>
-      </c>
-      <c r="N37" s="55" t="s">
-        <v>93</v>
+      <c r="N37" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="13.5" customHeight="1">
       <c r="B38" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="99" t="s">
-        <v>234</v>
+      <c r="F38" s="98" t="s">
+        <v>233</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I38" s="43">
         <v>24</v>
@@ -11969,33 +12006,33 @@
       <c r="J38" s="43">
         <v>1</v>
       </c>
-      <c r="K38" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="L38" s="101" t="s">
-        <v>236</v>
-      </c>
-      <c r="N38" s="55" t="s">
-        <v>93</v>
+      <c r="K38" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="L38" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="N38" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="13.5" customHeight="1">
       <c r="B39" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="99" t="s">
-        <v>234</v>
+      <c r="F39" s="98" t="s">
+        <v>233</v>
       </c>
       <c r="G39" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I39" s="43">
         <v>24</v>
@@ -12003,19 +12040,19 @@
       <c r="J39" s="43">
         <v>1</v>
       </c>
-      <c r="K39" s="100" t="s">
-        <v>240</v>
-      </c>
-      <c r="L39" s="101" t="s">
-        <v>236</v>
-      </c>
-      <c r="N39" s="55" t="s">
-        <v>93</v>
+      <c r="K39" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="L39" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="N39" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="13.5" customHeight="1">
       <c r="B40" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="43" t="s">
         <v>19</v>
@@ -12027,15 +12064,15 @@
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
       <c r="J40" s="43"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="106"/>
-      <c r="N40" s="55" t="s">
-        <v>93</v>
+      <c r="K40" s="99"/>
+      <c r="L40" s="104"/>
+      <c r="N40" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="13.5" customHeight="1">
       <c r="B41" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C41" s="43" t="s">
         <v>19</v>
@@ -12047,15 +12084,15 @@
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
       <c r="J41" s="43"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="106"/>
-      <c r="N41" s="55" t="s">
-        <v>93</v>
+      <c r="K41" s="99"/>
+      <c r="L41" s="104"/>
+      <c r="N41" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="13.5" customHeight="1">
       <c r="B42" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>19</v>
@@ -12068,14 +12105,14 @@
       <c r="I42" s="43"/>
       <c r="J42" s="43"/>
       <c r="K42" s="43"/>
-      <c r="L42" s="101"/>
-      <c r="N42" s="55" t="s">
-        <v>93</v>
+      <c r="L42" s="100"/>
+      <c r="N42" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="13.5" customHeight="1">
       <c r="B43" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>19</v>
@@ -12083,13 +12120,13 @@
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I43" s="43">
         <v>24</v>
@@ -12097,33 +12134,33 @@
       <c r="J43" s="43">
         <v>2</v>
       </c>
-      <c r="K43" s="100" t="s">
+      <c r="K43" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="L43" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="L43" s="101" t="s">
+      <c r="N43" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B44" s="107" t="s">
         <v>248</v>
-      </c>
-      <c r="N43" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" ht="13.5" customHeight="1">
-      <c r="B44" s="110" t="s">
-        <v>249</v>
       </c>
       <c r="C44" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="99" t="s">
-        <v>148</v>
+      <c r="F44" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I44" s="43">
         <v>24</v>
@@ -12131,17 +12168,17 @@
       <c r="J44" s="43">
         <v>1</v>
       </c>
-      <c r="K44" s="100" t="s">
-        <v>188</v>
-      </c>
-      <c r="L44" s="106" t="s">
+      <c r="K44" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="L44" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="N44" s="54"/>
+    </row>
+    <row r="45" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B45" s="107" t="s">
         <v>250</v>
-      </c>
-      <c r="N44" s="55"/>
-    </row>
-    <row r="45" spans="2:17" ht="13.5" customHeight="1">
-      <c r="B45" s="110" t="s">
-        <v>251</v>
       </c>
       <c r="C45" s="43" t="s">
         <v>19</v>
@@ -12149,13 +12186,13 @@
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I45" s="43">
         <v>24</v>
@@ -12163,17 +12200,17 @@
       <c r="J45" s="43">
         <v>1</v>
       </c>
-      <c r="K45" s="100" t="s">
+      <c r="K45" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="L45" s="106" t="s">
-        <v>254</v>
-      </c>
-      <c r="N45" s="55"/>
+      <c r="N45" s="54"/>
     </row>
     <row r="46" spans="2:17" ht="13.5" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>19</v>
@@ -12181,13 +12218,13 @@
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I46" s="43">
         <v>24</v>
@@ -12195,33 +12232,33 @@
       <c r="J46" s="43">
         <v>1</v>
       </c>
-      <c r="K46" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="L46" s="101" t="s">
-        <v>256</v>
-      </c>
-      <c r="N46" s="55" t="s">
-        <v>93</v>
+      <c r="K46" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="L46" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="N46" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="13.5" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
-      <c r="F47" s="99" t="s">
-        <v>148</v>
+      <c r="F47" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I47" s="43">
         <v>24</v>
@@ -12229,19 +12266,19 @@
       <c r="J47" s="43">
         <v>1</v>
       </c>
-      <c r="K47" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="L47" s="101" t="s">
-        <v>258</v>
-      </c>
-      <c r="N47" s="55" t="s">
-        <v>93</v>
+      <c r="K47" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L47" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="N47" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="13.5" customHeight="1">
       <c r="B48" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C48" s="43" t="s">
         <v>19</v>
@@ -12249,13 +12286,13 @@
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I48" s="43">
         <v>24</v>
@@ -12263,19 +12300,19 @@
       <c r="J48" s="43">
         <v>1</v>
       </c>
-      <c r="K48" s="100" t="s">
+      <c r="K48" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="L48" s="100" t="s">
         <v>260</v>
       </c>
-      <c r="L48" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="N48" s="55" t="s">
-        <v>93</v>
+      <c r="N48" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="13.5" customHeight="1">
       <c r="B49" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>19</v>
@@ -12283,13 +12320,13 @@
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I49" s="43">
         <v>24</v>
@@ -12297,19 +12334,19 @@
       <c r="J49" s="43">
         <v>1</v>
       </c>
-      <c r="K49" s="100" t="s">
+      <c r="K49" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="L49" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="L49" s="101" t="s">
-        <v>264</v>
-      </c>
-      <c r="N49" s="55" t="s">
-        <v>93</v>
+      <c r="N49" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="13.5" customHeight="1">
       <c r="B50" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>19</v>
@@ -12317,13 +12354,13 @@
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I50" s="43">
         <v>24</v>
@@ -12331,19 +12368,19 @@
       <c r="J50" s="43">
         <v>1</v>
       </c>
-      <c r="K50" s="100" t="s">
+      <c r="K50" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="L50" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="L50" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="N50" s="55" t="s">
-        <v>93</v>
+      <c r="N50" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="13.5" customHeight="1">
       <c r="B51" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>19</v>
@@ -12351,13 +12388,13 @@
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="I51" s="43">
         <v>24</v>
@@ -12365,19 +12402,19 @@
       <c r="J51" s="43">
         <v>1</v>
       </c>
-      <c r="K51" s="100" t="s">
-        <v>188</v>
-      </c>
-      <c r="L51" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="N51" s="55" t="s">
-        <v>93</v>
+      <c r="K51" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="L51" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="N51" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="13.5" customHeight="1">
       <c r="B52" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="43" t="s">
         <v>19</v>
@@ -12389,15 +12426,15 @@
       <c r="H52" s="43"/>
       <c r="I52" s="43"/>
       <c r="J52" s="43"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="101"/>
-      <c r="N52" s="55" t="s">
-        <v>93</v>
+      <c r="K52" s="99"/>
+      <c r="L52" s="100"/>
+      <c r="N52" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="13.5" customHeight="1">
       <c r="B53" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C53" s="43" t="s">
         <v>19</v>
@@ -12409,16 +12446,16 @@
       <c r="H53" s="43"/>
       <c r="I53" s="43"/>
       <c r="J53" s="43"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="101"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="100"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="55" t="s">
-        <v>93</v>
+      <c r="N53" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="13.5" customHeight="1">
       <c r="B54" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C54" s="43" t="s">
         <v>19</v>
@@ -12430,16 +12467,16 @@
       <c r="H54" s="43"/>
       <c r="I54" s="43"/>
       <c r="J54" s="43"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="101"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="100"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="55" t="s">
-        <v>93</v>
+      <c r="N54" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="13.5" customHeight="1">
       <c r="B55" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C55" s="43" t="s">
         <v>19</v>
@@ -12451,16 +12488,16 @@
       <c r="H55" s="43"/>
       <c r="I55" s="43"/>
       <c r="J55" s="43"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="101"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="100"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="55" t="s">
-        <v>93</v>
+      <c r="N55" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="13.5" customHeight="1">
       <c r="B56" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C56" s="43" t="s">
         <v>19</v>
@@ -12468,13 +12505,13 @@
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G56" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I56" s="43">
         <v>24</v>
@@ -12482,20 +12519,20 @@
       <c r="J56" s="43">
         <v>1</v>
       </c>
-      <c r="K56" s="100" t="s">
+      <c r="K56" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="L56" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="L56" s="101" t="s">
-        <v>277</v>
-      </c>
       <c r="M56" s="3"/>
-      <c r="N56" s="55" t="s">
-        <v>93</v>
+      <c r="N56" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="13.5" customHeight="1">
       <c r="B57" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>19</v>
@@ -12503,13 +12540,13 @@
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I57" s="43">
         <v>24</v>
@@ -12517,20 +12554,20 @@
       <c r="J57" s="43">
         <v>1</v>
       </c>
-      <c r="K57" s="100" t="s">
+      <c r="K57" s="99" t="s">
+        <v>278</v>
+      </c>
+      <c r="L57" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="L57" s="101" t="s">
-        <v>280</v>
-      </c>
       <c r="M57" s="3"/>
-      <c r="N57" s="55" t="s">
-        <v>93</v>
+      <c r="N57" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="13.5" customHeight="1">
       <c r="B58" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C58" s="43" t="s">
         <v>19</v>
@@ -12538,13 +12575,13 @@
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I58" s="43">
         <v>24</v>
@@ -12552,54 +12589,54 @@
       <c r="J58" s="43">
         <v>1</v>
       </c>
-      <c r="K58" s="100" t="s">
+      <c r="K58" s="99" t="s">
+        <v>281</v>
+      </c>
+      <c r="L58" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="L58" s="101" t="s">
-        <v>283</v>
-      </c>
       <c r="M58" s="3"/>
-      <c r="N58" s="55" t="s">
-        <v>93</v>
+      <c r="N58" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="111" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="119" t="s">
-        <v>286</v>
-      </c>
-      <c r="G59" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="I59" s="71">
+      <c r="G59" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" s="70">
         <v>24</v>
       </c>
-      <c r="J59" s="71">
+      <c r="J59" s="70">
         <v>1</v>
       </c>
-      <c r="K59" s="121" t="s">
+      <c r="K59" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="L59" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="L59" s="123" t="s">
-        <v>290</v>
-      </c>
       <c r="M59" s="3"/>
-      <c r="N59" s="55" t="s">
-        <v>93</v>
+      <c r="N59" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B60" s="124"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="3">
         <f>COUNTA(C5:C59)</f>
         <v>55</v>
@@ -14366,8 +14403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -14376,9 +14413,9 @@
     <col min="2" max="2" width="62.85546875" customWidth="1"/>
     <col min="3" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="144.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
@@ -14387,7 +14424,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="41.25" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -14440,7 +14477,7 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="78"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
@@ -14471,453 +14508,610 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="139"/>
       <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B5" s="93" t="s">
-        <v>349</v>
+      <c r="B5" s="92" t="s">
+        <v>346</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="134" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I5" s="131">
+        <v>32</v>
+      </c>
+      <c r="J5" s="131">
+        <v>2</v>
+      </c>
+      <c r="K5" s="142" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B6" s="92" t="s">
         <v>347</v>
-      </c>
-      <c r="L5" s="105"/>
-      <c r="N5" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="93" t="s">
-        <v>350</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="L6" s="105"/>
-      <c r="N6" s="55" t="s">
-        <v>45</v>
+      <c r="F6" s="134" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I6" s="131">
+        <v>32</v>
+      </c>
+      <c r="J6" s="131">
+        <v>2</v>
+      </c>
+      <c r="K6" s="142" t="s">
+        <v>366</v>
+      </c>
+      <c r="L6" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="93" t="s">
-        <v>346</v>
+      <c r="B7" s="92" t="s">
+        <v>344</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="105"/>
-      <c r="N7" s="55" t="s">
-        <v>45</v>
+      <c r="F7" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I7" s="131">
+        <v>32</v>
+      </c>
+      <c r="J7" s="131">
+        <v>2</v>
+      </c>
+      <c r="K7" s="142" t="s">
+        <v>366</v>
+      </c>
+      <c r="L7" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="141" t="s">
-        <v>360</v>
+      <c r="B8" s="133" t="s">
+        <v>355</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="143" t="s">
-        <v>347</v>
+      <c r="F8" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I8" s="131">
+        <v>32</v>
+      </c>
+      <c r="J8" s="131">
+        <v>2</v>
+      </c>
+      <c r="K8" s="142" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="139" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="138" t="s">
+        <v>364</v>
+      </c>
+      <c r="I9" s="131">
+        <v>32</v>
+      </c>
+      <c r="J9" s="131">
+        <v>2</v>
+      </c>
+      <c r="K9" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B10" s="92" t="s">
         <v>348</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="113"/>
-      <c r="N9" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B10" s="93" t="s">
-        <v>351</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="116"/>
+      <c r="F10" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G10" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I10" s="131">
+        <v>32</v>
+      </c>
+      <c r="J10" s="131">
+        <v>2</v>
+      </c>
+      <c r="K10" s="142" t="s">
+        <v>329</v>
+      </c>
+      <c r="L10" s="139" t="s">
+        <v>363</v>
+      </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="55" t="s">
-        <v>45</v>
+      <c r="N10" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="141" t="s">
-        <v>352</v>
+      <c r="B11" s="133" t="s">
+        <v>349</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="43"/>
-      <c r="F11" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="116"/>
+      <c r="F11" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I11" s="131">
+        <v>32</v>
+      </c>
+      <c r="J11" s="131">
+        <v>2</v>
+      </c>
+      <c r="K11" s="142" t="s">
+        <v>367</v>
+      </c>
+      <c r="L11" s="139" t="s">
+        <v>363</v>
+      </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="55" t="s">
-        <v>45</v>
+      <c r="N11" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="141" t="s">
-        <v>353</v>
+      <c r="B12" s="133" t="s">
+        <v>350</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="43"/>
-      <c r="F12" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="F12" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I12" s="131">
+        <v>32</v>
+      </c>
+      <c r="J12" s="131">
+        <v>2</v>
+      </c>
+      <c r="K12" s="142" t="s">
+        <v>368</v>
+      </c>
+      <c r="L12" s="139" t="s">
+        <v>363</v>
+      </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="55" t="s">
-        <v>45</v>
+      <c r="N12" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="141" t="s">
-        <v>354</v>
+      <c r="B13" s="133" t="s">
+        <v>351</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="43"/>
-      <c r="F13" s="142" t="s">
-        <v>355</v>
-      </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="F13" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I13" s="131">
+        <v>32</v>
+      </c>
+      <c r="J13" s="131">
+        <v>2</v>
+      </c>
+      <c r="K13" s="142" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" s="139" t="s">
+        <v>363</v>
+      </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="55" t="s">
-        <v>45</v>
+      <c r="N13" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="141" t="s">
-        <v>356</v>
+      <c r="B14" s="133" t="s">
+        <v>352</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="142" t="s">
-        <v>347</v>
-      </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="55" t="s">
-        <v>45</v>
+      <c r="E14" s="48"/>
+      <c r="F14" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" s="131">
+        <v>32</v>
+      </c>
+      <c r="J14" s="131">
+        <v>2</v>
+      </c>
+      <c r="K14" s="142" t="s">
+        <v>370</v>
+      </c>
+      <c r="L14" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="141" t="s">
-        <v>357</v>
+      <c r="B15" s="133" t="s">
+        <v>353</v>
       </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="142" t="s">
-        <v>347</v>
-      </c>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118"/>
-      <c r="N15" s="55" t="s">
-        <v>45</v>
+      <c r="E15" s="48"/>
+      <c r="F15" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15" s="131">
+        <v>32</v>
+      </c>
+      <c r="J15" s="131">
+        <v>2</v>
+      </c>
+      <c r="K15" s="142" t="s">
+        <v>371</v>
+      </c>
+      <c r="L15" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="N15" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="141" t="s">
-        <v>358</v>
+      <c r="B16" s="133" t="s">
+        <v>356</v>
       </c>
       <c r="C16" s="43"/>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="142" t="s">
-        <v>347</v>
-      </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="118"/>
-      <c r="N16" s="55" t="s">
-        <v>93</v>
+      <c r="E16" s="48"/>
+      <c r="F16" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="138" t="s">
+        <v>364</v>
+      </c>
+      <c r="I16" s="131">
+        <v>32</v>
+      </c>
+      <c r="J16" s="131">
+        <v>2</v>
+      </c>
+      <c r="K16" s="142" t="s">
+        <v>372</v>
+      </c>
+      <c r="L16" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="141" t="s">
-        <v>361</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="143" t="s">
+      <c r="B17" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="142" t="s">
-        <v>347</v>
-      </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="86"/>
       <c r="K17" s="114"/>
-      <c r="L17" s="118"/>
-      <c r="N17" s="55" t="s">
-        <v>93</v>
+      <c r="L17" s="110"/>
+      <c r="N17" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="93" t="s">
-        <v>287</v>
+      <c r="B18" s="92" t="s">
+        <v>283</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="43"/>
-      <c r="E18" s="120" t="s">
+      <c r="E18" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="86" t="s">
         <v>289</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="118"/>
-      <c r="N18" s="55" t="s">
-        <v>93</v>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="110"/>
+      <c r="N18" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="93" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="87" t="s">
+      <c r="B19" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="109"/>
+      <c r="N19" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B20" s="92" t="s">
         <v>291</v>
-      </c>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="118"/>
-      <c r="N19" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="93" t="s">
-        <v>292</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="43"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="116"/>
-      <c r="N20" s="55" t="s">
-        <v>93</v>
+      <c r="F20" s="86"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="110"/>
+      <c r="N20" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="93" t="s">
-        <v>293</v>
+      <c r="B21" s="92" t="s">
+        <v>241</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="43"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="118"/>
-      <c r="N21" s="55" t="s">
-        <v>93</v>
+      <c r="F21" s="86"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="110"/>
+      <c r="N21" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="93" t="s">
-        <v>242</v>
+      <c r="B22" s="92" t="s">
+        <v>292</v>
       </c>
       <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="43"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="118"/>
-      <c r="N22" s="55" t="s">
-        <v>45</v>
+      <c r="F22" s="117"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="110"/>
+      <c r="N22" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="110"/>
+      <c r="N23" s="54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B24" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="29" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="118"/>
-      <c r="N23" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="93" t="s">
+      <c r="E24" s="29"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="110"/>
+      <c r="N24" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B25" s="92" t="s">
         <v>295</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="118"/>
-      <c r="N24" s="55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B25" s="93" t="s">
-        <v>296</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="118"/>
-      <c r="N25" s="55" t="s">
-        <v>93</v>
+      <c r="F25" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="110"/>
+      <c r="N25" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="92" t="s">
         <v>297</v>
       </c>
       <c r="C26" s="29"/>
@@ -14925,62 +15119,55 @@
         <v>20</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="F26" s="107" t="s">
+      <c r="F26" s="105"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="110"/>
+      <c r="N26" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B27" s="92" t="s">
         <v>298</v>
-      </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="118"/>
-      <c r="N26" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="93" t="s">
-        <v>299</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="29"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="118"/>
-      <c r="N27" s="55" t="s">
-        <v>45</v>
+      <c r="F27" s="105"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="109"/>
+      <c r="N27" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="93" t="s">
-        <v>300</v>
+      <c r="B28" s="92" t="s">
+        <v>299</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="29"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="116"/>
-      <c r="N28" s="55" t="s">
-        <v>93</v>
+      <c r="F28" s="43"/>
+      <c r="L28" s="110"/>
+      <c r="N28" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B29" s="93" t="s">
-        <v>301</v>
+      <c r="B29" s="92" t="s">
+        <v>300</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
@@ -14988,150 +15175,136 @@
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="43"/>
-      <c r="L29" s="118"/>
-      <c r="N29" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B30" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
+      <c r="L29" s="110"/>
+      <c r="N29" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B30" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="43"/>
-      <c r="L30" s="118"/>
-      <c r="N30" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B31" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B31" s="96"/>
+      <c r="C31" s="3">
+        <f>COUNTA(C9:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <f>COUNTA(D9:D30)</f>
         <v>20</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="129"/>
+      <c r="E31" s="3">
+        <f>COUNTA(E9:E30)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="55" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="97"/>
-      <c r="C32" s="3">
-        <f>COUNTA(C9:C31)</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <f>COUNTA(D9:D31)</f>
-        <v>20</v>
-      </c>
-      <c r="E32" s="3">
-        <f>COUNTA(E9:E31)</f>
-        <v>2</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B33" s="97"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-    </row>
-    <row r="34" spans="2:6" ht="13.5" customHeight="1">
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="144" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="13.5" customHeight="1">
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-    </row>
-    <row r="36" spans="2:6" ht="13.5" customHeight="1">
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-    </row>
-    <row r="37" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B32" s="96"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+    </row>
+    <row r="33" spans="3:6" ht="13.5" customHeight="1">
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="135" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="13.5" customHeight="1">
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+    </row>
+    <row r="35" spans="3:6" ht="13.5" customHeight="1">
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+    </row>
+    <row r="36" spans="3:6" ht="13.5" customHeight="1">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="3:6" ht="13.5" customHeight="1">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:6" ht="13.5" customHeight="1">
+    <row r="38" spans="3:6" ht="13.5" customHeight="1">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:6" ht="13.5" customHeight="1">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" ht="13.5" customHeight="1">
+    <row r="39" spans="3:6" ht="13.5" customHeight="1"/>
+    <row r="40" spans="3:6" ht="13.5" customHeight="1">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:6" ht="13.5" customHeight="1">
+    <row r="41" spans="3:6" ht="13.5" customHeight="1">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:6" ht="13.5" customHeight="1">
+    <row r="42" spans="3:6" ht="13.5" customHeight="1">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:6" ht="13.5" customHeight="1">
+    <row r="43" spans="3:6" ht="13.5" customHeight="1">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:6" ht="13.5" customHeight="1">
+    <row r="44" spans="3:6" ht="13.5" customHeight="1">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:6" ht="13.5" customHeight="1">
+    <row r="45" spans="3:6" ht="13.5" customHeight="1">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:6" ht="13.5" customHeight="1">
+    <row r="46" spans="3:6" ht="13.5" customHeight="1">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:6" ht="13.5" customHeight="1">
+    <row r="47" spans="3:6" ht="13.5" customHeight="1">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:6" ht="13.5" customHeight="1">
+    <row r="48" spans="3:6" ht="13.5" customHeight="1">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -16828,7 +17001,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -16908,559 +17081,559 @@
       <c r="B4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="132"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B6" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="125" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="G6" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="122">
+        <v>16</v>
+      </c>
+      <c r="I6" s="122">
+        <v>32</v>
+      </c>
+      <c r="J6" s="122">
+        <v>1</v>
+      </c>
+      <c r="K6" s="123" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" s="124" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B7" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-    </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="110" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="130" t="s">
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="122">
+        <v>16</v>
+      </c>
+      <c r="I7" s="122">
+        <v>32</v>
+      </c>
+      <c r="J7" s="122">
+        <v>1</v>
+      </c>
+      <c r="K7" s="123" t="s">
+        <v>308</v>
+      </c>
+      <c r="L7" s="124" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B8" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="133" t="s">
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="122">
+        <v>16</v>
+      </c>
+      <c r="I8" s="122">
+        <v>32</v>
+      </c>
+      <c r="J8" s="122">
+        <v>1</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="L8" s="124" t="s">
         <v>306</v>
       </c>
-      <c r="G6" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="130">
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B9" s="107" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="122">
         <v>16</v>
       </c>
-      <c r="I6" s="130">
+      <c r="I9" s="122">
         <v>32</v>
       </c>
-      <c r="J6" s="130">
+      <c r="J9" s="122">
         <v>1</v>
       </c>
-      <c r="K6" s="131" t="s">
-        <v>307</v>
-      </c>
-      <c r="L6" s="132" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="110" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="130" t="s">
+      <c r="K9" s="123" t="s">
+        <v>312</v>
+      </c>
+      <c r="L9" s="124" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B10" s="107" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="133" t="s">
-        <v>306</v>
-      </c>
-      <c r="G7" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="130">
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="125" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="122">
         <v>16</v>
       </c>
-      <c r="I7" s="130">
+      <c r="I10" s="122">
         <v>32</v>
       </c>
-      <c r="J7" s="130">
+      <c r="J10" s="122">
         <v>1</v>
       </c>
-      <c r="K7" s="131" t="s">
-        <v>310</v>
-      </c>
-      <c r="L7" s="132" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="110" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" s="130" t="s">
+      <c r="K10" s="123" t="s">
+        <v>315</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B11" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="133" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="130">
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="125" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="122">
         <v>16</v>
       </c>
-      <c r="I8" s="130">
+      <c r="I11" s="122">
         <v>32</v>
       </c>
-      <c r="J8" s="130">
+      <c r="J11" s="122">
         <v>1</v>
       </c>
-      <c r="K8" s="131" t="s">
-        <v>312</v>
-      </c>
-      <c r="L8" s="132" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="110" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="134" t="s">
+      <c r="K11" s="123" t="s">
+        <v>318</v>
+      </c>
+      <c r="L11" s="124" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B12" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="133" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="130">
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="125" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="122">
         <v>16</v>
       </c>
-      <c r="I9" s="130">
+      <c r="I12" s="122">
         <v>32</v>
       </c>
-      <c r="J9" s="130">
+      <c r="J12" s="122">
         <v>1</v>
       </c>
-      <c r="K9" s="131" t="s">
-        <v>314</v>
-      </c>
-      <c r="L9" s="132" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="110" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="130" t="s">
+      <c r="K12" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="L12" s="124" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B13" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="133" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="125" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="122">
+        <v>16</v>
+      </c>
+      <c r="I13" s="122">
+        <v>32</v>
+      </c>
+      <c r="J13" s="122">
+        <v>1</v>
+      </c>
+      <c r="K13" s="123" t="s">
+        <v>323</v>
+      </c>
+      <c r="L13" s="124" t="s">
         <v>316</v>
       </c>
-      <c r="G10" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="130">
+    </row>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B14" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="122">
         <v>16</v>
       </c>
-      <c r="I10" s="130">
+      <c r="I14" s="122">
         <v>32</v>
       </c>
-      <c r="J10" s="130">
+      <c r="J14" s="122">
         <v>1</v>
       </c>
-      <c r="K10" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="L10" s="132" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="110" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="130" t="s">
+      <c r="K14" s="123" t="s">
+        <v>326</v>
+      </c>
+      <c r="L14" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B15" s="107" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="133" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="130">
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="122">
         <v>16</v>
       </c>
-      <c r="I11" s="130">
+      <c r="I15" s="122">
         <v>32</v>
       </c>
-      <c r="J11" s="130">
+      <c r="J15" s="122">
         <v>1</v>
       </c>
-      <c r="K11" s="131" t="s">
-        <v>320</v>
-      </c>
-      <c r="L11" s="132" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="110" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" s="130" t="s">
+      <c r="K15" s="123" t="s">
+        <v>329</v>
+      </c>
+      <c r="L15" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B16" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="133" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="130">
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="122">
         <v>16</v>
       </c>
-      <c r="I12" s="130">
+      <c r="I16" s="122">
         <v>32</v>
       </c>
-      <c r="J12" s="130">
+      <c r="J16" s="122">
         <v>1</v>
       </c>
-      <c r="K12" s="131" t="s">
-        <v>322</v>
-      </c>
-      <c r="L12" s="132" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="110" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" s="134" t="s">
+      <c r="K16" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="L16" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B17" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="133" t="s">
-        <v>324</v>
-      </c>
-      <c r="G13" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="130">
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="122">
         <v>16</v>
       </c>
-      <c r="I13" s="130">
+      <c r="I17" s="122">
         <v>32</v>
       </c>
-      <c r="J13" s="130">
+      <c r="J17" s="122">
         <v>1</v>
       </c>
-      <c r="K13" s="131" t="s">
-        <v>325</v>
-      </c>
-      <c r="L13" s="132" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="110" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" s="130" t="s">
+      <c r="K17" s="123" t="s">
+        <v>333</v>
+      </c>
+      <c r="L17" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B18" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="130">
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="125" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="122">
         <v>16</v>
       </c>
-      <c r="I14" s="130">
+      <c r="I18" s="122">
         <v>32</v>
       </c>
-      <c r="J14" s="130">
+      <c r="J18" s="122">
         <v>1</v>
       </c>
-      <c r="K14" s="131" t="s">
-        <v>328</v>
-      </c>
-      <c r="L14" s="132" t="s">
-        <v>329</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="110" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="G15" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="130">
-        <v>16</v>
-      </c>
-      <c r="I15" s="130">
-        <v>32</v>
-      </c>
-      <c r="J15" s="130">
-        <v>1</v>
-      </c>
-      <c r="K15" s="131" t="s">
-        <v>331</v>
-      </c>
-      <c r="L15" s="132" t="s">
-        <v>329</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="110" t="s">
-        <v>332</v>
-      </c>
-      <c r="C16" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="130">
-        <v>16</v>
-      </c>
-      <c r="I16" s="130">
-        <v>32</v>
-      </c>
-      <c r="J16" s="130">
-        <v>1</v>
-      </c>
-      <c r="K16" s="131" t="s">
-        <v>333</v>
-      </c>
-      <c r="L16" s="132" t="s">
-        <v>329</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="110" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="G17" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="130">
-        <v>16</v>
-      </c>
-      <c r="I17" s="130">
-        <v>32</v>
-      </c>
-      <c r="J17" s="130">
-        <v>1</v>
-      </c>
-      <c r="K17" s="131" t="s">
-        <v>335</v>
-      </c>
-      <c r="L17" s="132" t="s">
-        <v>329</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="110" t="s">
+      <c r="K18" s="123" t="s">
         <v>336</v>
       </c>
-      <c r="C18" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="133" t="s">
-        <v>337</v>
-      </c>
-      <c r="G18" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="130">
-        <v>16</v>
-      </c>
-      <c r="I18" s="130">
-        <v>32</v>
-      </c>
-      <c r="J18" s="130">
-        <v>1</v>
-      </c>
-      <c r="K18" s="131" t="s">
-        <v>338</v>
-      </c>
-      <c r="L18" s="132" t="s">
-        <v>236</v>
+      <c r="L18" s="124" t="s">
+        <v>235</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="33"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="107" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="125" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="122">
+        <v>16</v>
+      </c>
+      <c r="I19" s="122">
+        <v>32</v>
+      </c>
+      <c r="J19" s="122">
+        <v>1</v>
+      </c>
+      <c r="K19" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="L19" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B20" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C20" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="133" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="130">
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="125" t="s">
+        <v>335</v>
+      </c>
+      <c r="G20" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="122">
         <v>16</v>
       </c>
-      <c r="I19" s="130">
+      <c r="I20" s="122">
         <v>32</v>
       </c>
-      <c r="J19" s="130">
+      <c r="J20" s="122">
         <v>1</v>
       </c>
-      <c r="K19" s="131" t="s">
+      <c r="K20" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="L19" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="110" t="s">
+      <c r="L20" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B21" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C21" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="133" t="s">
-        <v>337</v>
-      </c>
-      <c r="G20" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="130">
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="125" t="s">
+        <v>335</v>
+      </c>
+      <c r="G21" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="122">
         <v>16</v>
       </c>
-      <c r="I20" s="130">
+      <c r="I21" s="122">
         <v>32</v>
       </c>
-      <c r="J20" s="130">
+      <c r="J21" s="122">
         <v>1</v>
       </c>
-      <c r="K20" s="131" t="s">
+      <c r="K21" s="123" t="s">
         <v>342</v>
       </c>
-      <c r="L20" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="110" t="s">
+      <c r="L21" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B22" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C22" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="133" t="s">
-        <v>337</v>
-      </c>
-      <c r="G21" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="130">
-        <v>16</v>
-      </c>
-      <c r="I21" s="130">
-        <v>32</v>
-      </c>
-      <c r="J21" s="130">
-        <v>1</v>
-      </c>
-      <c r="K21" s="131" t="s">
-        <v>344</v>
-      </c>
-      <c r="L21" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C22" s="135" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="138"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C23" s="139">
+      <c r="C23" s="131">
         <v>18</v>
       </c>
       <c r="D23" s="2"/>
@@ -17470,7 +17643,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="140"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="C25" s="2"/>

--- a/Material de Sonido/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Material de Sonido/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="379">
   <si>
     <t>Metadatos - Global + Estadísticas</t>
   </si>
@@ -1145,7 +1145,22 @@
     <t>00:01:05</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonido sintentizado con csound, </t>
+    <t>Sonido sintentizado con csound,  uso de varios osciladores, envolvente, cambio de frecuencia exponencial, ruido blanco y suma de señales</t>
+  </si>
+  <si>
+    <t>Sonido sintentizado con csound,  uso de varios osciladores, envolvente, cambio de frecuencia exponencial y suma de señales</t>
+  </si>
+  <si>
+    <t>Sonido sintentizado con csound,  utilizacion de archivo midi</t>
+  </si>
+  <si>
+    <t>Sonido sintentizado con csound,  uso de varios osciladores, envolvente, muestras con efecto de retardo para crear efecto coro y suma de señales</t>
+  </si>
+  <si>
+    <t>Sonido sintentizado con csound, uso de oscilador, de envolvente, distintas frecuencias modificadas exponencialmente</t>
+  </si>
+  <si>
+    <t>Sonido sintentizado con csound, uso de oscilador, de envolvente</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1268,12 +1283,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1287,6 +1296,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1780,8 +1802,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2125,36 +2151,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -5629,7 +5656,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="45"/>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="140" t="s">
         <v>359</v>
       </c>
       <c r="G5" s="48" t="s">
@@ -5647,7 +5674,7 @@
       <c r="K5" s="69">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="136" t="s">
         <v>361</v>
       </c>
       <c r="N5" s="52" t="s">
@@ -14403,8 +14430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -14509,18 +14536,18 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="80"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="103"/>
-      <c r="L4" s="139"/>
+      <c r="L4" s="138"/>
       <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="142" t="s">
         <v>346</v>
       </c>
       <c r="C5" s="43"/>
@@ -14528,13 +14555,13 @@
         <v>20</v>
       </c>
       <c r="E5" s="43"/>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="133" t="s">
         <v>365</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="138" t="s">
+      <c r="H5" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I5" s="131">
@@ -14543,10 +14570,10 @@
       <c r="J5" s="131">
         <v>2</v>
       </c>
-      <c r="K5" s="142" t="s">
+      <c r="K5" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="138" t="s">
         <v>363</v>
       </c>
       <c r="N5" s="54" t="s">
@@ -14554,7 +14581,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="142" t="s">
         <v>347</v>
       </c>
       <c r="C6" s="43"/>
@@ -14562,13 +14589,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="43"/>
-      <c r="F6" s="134" t="s">
+      <c r="F6" s="133" t="s">
         <v>365</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I6" s="131">
@@ -14577,10 +14604,10 @@
       <c r="J6" s="131">
         <v>2</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="138" t="s">
         <v>363</v>
       </c>
       <c r="N6" s="54" t="s">
@@ -14588,7 +14615,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="142" t="s">
         <v>344</v>
       </c>
       <c r="C7" s="29"/>
@@ -14596,13 +14623,13 @@
         <v>20</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="133" t="s">
         <v>373</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="138" t="s">
+      <c r="H7" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I7" s="131">
@@ -14611,10 +14638,10 @@
       <c r="J7" s="131">
         <v>2</v>
       </c>
-      <c r="K7" s="142" t="s">
+      <c r="K7" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="L7" s="139" t="s">
+      <c r="L7" s="138" t="s">
         <v>363</v>
       </c>
       <c r="N7" s="54" t="s">
@@ -14622,19 +14649,19 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="142" t="s">
         <v>355</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" s="138" t="s">
+      <c r="F8" s="133" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="138" t="s">
+      <c r="H8" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I8" s="131">
@@ -14643,29 +14670,29 @@
       <c r="J8" s="131">
         <v>2</v>
       </c>
-      <c r="K8" s="142" t="s">
+      <c r="K8" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="L8" s="139" t="s">
+      <c r="L8" s="138" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="142" t="s">
         <v>345</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="135" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="133" t="s">
         <v>373</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="138" t="s">
+      <c r="H9" s="137" t="s">
         <v>364</v>
       </c>
       <c r="I9" s="131">
@@ -14674,10 +14701,10 @@
       <c r="J9" s="131">
         <v>2</v>
       </c>
-      <c r="K9" s="142" t="s">
+      <c r="K9" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="L9" s="139" t="s">
+      <c r="L9" s="138" t="s">
         <v>363</v>
       </c>
       <c r="N9" s="54" t="s">
@@ -14685,7 +14712,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="142" t="s">
         <v>348</v>
       </c>
       <c r="C10" s="43"/>
@@ -14693,13 +14720,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="G10" s="138" t="s">
+      <c r="F10" s="133" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="138" t="s">
+      <c r="H10" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I10" s="131">
@@ -14708,10 +14735,10 @@
       <c r="J10" s="131">
         <v>2</v>
       </c>
-      <c r="K10" s="142" t="s">
+      <c r="K10" s="141" t="s">
         <v>329</v>
       </c>
-      <c r="L10" s="139" t="s">
+      <c r="L10" s="138" t="s">
         <v>363</v>
       </c>
       <c r="M10" s="3"/>
@@ -14720,7 +14747,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="142" t="s">
         <v>349</v>
       </c>
       <c r="C11" s="43"/>
@@ -14728,13 +14755,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="43"/>
-      <c r="F11" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="G11" s="140" t="s">
+      <c r="F11" s="133" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="138" t="s">
+      <c r="H11" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I11" s="131">
@@ -14743,10 +14770,10 @@
       <c r="J11" s="131">
         <v>2</v>
       </c>
-      <c r="K11" s="142" t="s">
+      <c r="K11" s="141" t="s">
         <v>367</v>
       </c>
-      <c r="L11" s="139" t="s">
+      <c r="L11" s="138" t="s">
         <v>363</v>
       </c>
       <c r="M11" s="3"/>
@@ -14755,7 +14782,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="142" t="s">
         <v>350</v>
       </c>
       <c r="C12" s="43"/>
@@ -14763,13 +14790,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="43"/>
-      <c r="F12" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="G12" s="138" t="s">
+      <c r="F12" s="133" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="138" t="s">
+      <c r="H12" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I12" s="131">
@@ -14778,10 +14805,10 @@
       <c r="J12" s="131">
         <v>2</v>
       </c>
-      <c r="K12" s="142" t="s">
+      <c r="K12" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="L12" s="139" t="s">
+      <c r="L12" s="138" t="s">
         <v>363</v>
       </c>
       <c r="M12" s="3"/>
@@ -14790,7 +14817,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="142" t="s">
         <v>351</v>
       </c>
       <c r="C13" s="43"/>
@@ -14798,13 +14825,13 @@
         <v>20</v>
       </c>
       <c r="E13" s="43"/>
-      <c r="F13" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="G13" s="138" t="s">
+      <c r="F13" s="133" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="138" t="s">
+      <c r="H13" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I13" s="131">
@@ -14813,10 +14840,10 @@
       <c r="J13" s="131">
         <v>2</v>
       </c>
-      <c r="K13" s="142" t="s">
+      <c r="K13" s="141" t="s">
         <v>369</v>
       </c>
-      <c r="L13" s="139" t="s">
+      <c r="L13" s="138" t="s">
         <v>363</v>
       </c>
       <c r="M13" s="3"/>
@@ -14825,7 +14852,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="142" t="s">
         <v>352</v>
       </c>
       <c r="C14" s="43"/>
@@ -14833,13 +14860,13 @@
         <v>20</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="G14" s="140" t="s">
+      <c r="F14" s="133" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="138" t="s">
+      <c r="H14" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I14" s="131">
@@ -14848,10 +14875,10 @@
       <c r="J14" s="131">
         <v>2</v>
       </c>
-      <c r="K14" s="142" t="s">
+      <c r="K14" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="L14" s="139" t="s">
+      <c r="L14" s="138" t="s">
         <v>363</v>
       </c>
       <c r="N14" s="54" t="s">
@@ -14859,21 +14886,21 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="142" t="s">
         <v>353</v>
       </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="133" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="48"/>
-      <c r="F15" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="G15" s="138" t="s">
+      <c r="F15" s="133" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="138" t="s">
+      <c r="H15" s="137" t="s">
         <v>362</v>
       </c>
       <c r="I15" s="131">
@@ -14882,10 +14909,10 @@
       <c r="J15" s="131">
         <v>2</v>
       </c>
-      <c r="K15" s="142" t="s">
+      <c r="K15" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="L15" s="139" t="s">
+      <c r="L15" s="138" t="s">
         <v>363</v>
       </c>
       <c r="N15" s="54" t="s">
@@ -14893,21 +14920,21 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="142" t="s">
         <v>356</v>
       </c>
       <c r="C16" s="43"/>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="133" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="48"/>
-      <c r="F16" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="G16" s="140" t="s">
+      <c r="F16" s="133" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="138" t="s">
+      <c r="H16" s="137" t="s">
         <v>364</v>
       </c>
       <c r="I16" s="131">
@@ -14916,10 +14943,10 @@
       <c r="J16" s="131">
         <v>2</v>
       </c>
-      <c r="K16" s="142" t="s">
+      <c r="K16" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="L16" s="139" t="s">
+      <c r="L16" s="138" t="s">
         <v>363</v>
       </c>
       <c r="N16" s="54" t="s">
@@ -14931,13 +14958,13 @@
         <v>286</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="133" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="112"/>
       <c r="F17" s="86"/>
       <c r="G17" s="108"/>
-      <c r="H17" s="138"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="131"/>
       <c r="J17" s="86"/>
       <c r="K17" s="114"/>
@@ -15234,7 +15261,7 @@
       <c r="C33" s="131"/>
       <c r="D33" s="131"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="135" t="s">
+      <c r="F33" s="134" t="s">
         <v>354</v>
       </c>
     </row>
@@ -16973,8 +17000,22 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Material de Sonido/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Material de Sonido/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="27495" windowHeight="10935"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="27495" windowHeight="10935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="380">
   <si>
     <t>Metadatos - Global + Estadísticas</t>
   </si>
@@ -121,9 +121,6 @@
     <t>f interesante</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1HRvTL-OUojRYKx9cLqiWRSbcMPOZVESs/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/wjoojoo/sounds/254197/</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>11 kHz</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1GslxGOr4VEe4u2FX3-cBx6vigqqVQPuc/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Ambiente/sonido de viento/sonido1</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>Musica/situacion estandar/nivel 2</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1E54rWQu6s7IfoRtIJaqCAngDv4A-KR1E/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Musica/Aparecen enemigos normales/musica enemigos1</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>-14,028dB</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1OGj_PfIBpekdLrSKnVZyDRoBkeXHu_oZ/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Ambiente/Gritos de dolor femeninos/grito3</t>
   </si>
   <si>
@@ -1169,6 +1157,9 @@
   </si>
   <si>
     <t>ogg - 11 kHz - 16 bitdepth: Sonido ambiente distante o ambiente en salas</t>
+  </si>
+  <si>
+    <t>Cancion compuesta con flstudio</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1241,12 +1232,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1797,7 +1782,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1913,19 +1898,16 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1961,7 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2074,7 +2056,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2107,66 +2089,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2481,7 +2466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2515,8 +2500,8 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="139" t="s">
-        <v>378</v>
+      <c r="H3" s="138" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
@@ -2526,8 +2511,8 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="130" t="s">
-        <v>379</v>
+      <c r="H4" s="129" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="13.5" customHeight="1">
@@ -2545,8 +2530,8 @@
         <v>5</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="140" t="s">
-        <v>380</v>
+      <c r="H5" s="139" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="13.5" customHeight="1">
@@ -2570,8 +2555,8 @@
         <v>10</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="130" t="s">
-        <v>381</v>
+      <c r="H6" s="129" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="13.5" customHeight="1">
@@ -2595,8 +2580,8 @@
         <v>15</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="130" t="s">
-        <v>382</v>
+      <c r="H7" s="129" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
@@ -2689,19 +2674,19 @@
     </row>
     <row r="12" spans="2:8" ht="13.5" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <f t="shared" ref="C12:F12" si="1">SUM(C6:C11)</f>
         <v>80</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="48">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
@@ -3720,8 +3705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3847,7 +3832,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="A5" s="31"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="137" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="27"/>
@@ -3855,20 +3840,20 @@
       <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>33</v>
+      <c r="F5" s="141" t="s">
+        <v>379</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="27">
         <v>44.1</v>
       </c>
       <c r="I5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="46" t="s">
         <v>36</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>37</v>
       </c>
       <c r="K5" s="35">
         <v>4.3055555555555555E-2</v>
@@ -3892,35 +3877,35 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="31"/>
-      <c r="B6" s="39" t="s">
-        <v>38</v>
+      <c r="B6" s="137" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>40</v>
+      <c r="F6" s="141" t="s">
+        <v>379</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="27">
         <v>44.1</v>
       </c>
       <c r="I6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="51">
+      <c r="K6" s="50">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="L6" s="37"/>
-      <c r="M6" s="50" t="s">
-        <v>43</v>
+      <c r="M6" s="49" t="s">
+        <v>41</v>
       </c>
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
@@ -3937,35 +3922,35 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="A7" s="31"/>
-      <c r="B7" s="39" t="s">
-        <v>45</v>
+      <c r="B7" s="137" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>46</v>
+      <c r="F7" s="141" t="s">
+        <v>379</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="27">
         <v>44.1</v>
       </c>
       <c r="I7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="46" t="s">
         <v>36</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>37</v>
       </c>
       <c r="K7" s="35">
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="L7" s="37"/>
-      <c r="M7" s="50" t="s">
-        <v>43</v>
+      <c r="M7" s="49" t="s">
+        <v>41</v>
       </c>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
@@ -3982,7 +3967,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -3996,13 +3981,13 @@
       <c r="J8" s="27"/>
       <c r="K8" s="35"/>
       <c r="L8" s="37"/>
-      <c r="M8" s="50" t="s">
-        <v>43</v>
+      <c r="M8" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -4016,13 +4001,13 @@
       <c r="J9" s="27"/>
       <c r="K9" s="35"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="50" t="s">
-        <v>43</v>
+      <c r="M9" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27" t="s">
@@ -4036,13 +4021,13 @@
       <c r="J10" s="27"/>
       <c r="K10" s="35"/>
       <c r="L10" s="37"/>
-      <c r="M10" s="50" t="s">
-        <v>43</v>
+      <c r="M10" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -4056,13 +4041,13 @@
       <c r="J11" s="27"/>
       <c r="K11" s="35"/>
       <c r="L11" s="37"/>
-      <c r="M11" s="50" t="s">
-        <v>43</v>
+      <c r="M11" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -4076,683 +4061,683 @@
       <c r="J12" s="27"/>
       <c r="K12" s="35"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="50" t="s">
-        <v>43</v>
+      <c r="M12" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="39" t="s">
-        <v>61</v>
+      <c r="B13" s="137" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>63</v>
+      <c r="F13" s="141" t="s">
+        <v>379</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="27">
         <v>44.1</v>
       </c>
       <c r="I13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="46" t="s">
         <v>36</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>37</v>
       </c>
       <c r="K13" s="35">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L13" s="37"/>
-      <c r="M13" s="50"/>
-    </row>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57" t="s">
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B14" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="50" t="s">
-        <v>43</v>
+      <c r="F14" s="57"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="61"/>
-      <c r="D15" s="62">
+      <c r="B15" s="60"/>
+      <c r="D15" s="61">
         <f>COUNTA(D4:D14)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="61">
         <f>COUNTA(E4:E14)</f>
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="61"/>
+      <c r="B16" s="60"/>
     </row>
     <row r="17" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B17" s="61"/>
+      <c r="B17" s="60"/>
     </row>
     <row r="18" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B18" s="61"/>
+      <c r="B18" s="60"/>
     </row>
     <row r="19" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B19" s="61"/>
+      <c r="B19" s="60"/>
     </row>
     <row r="20" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B20" s="61"/>
+      <c r="B20" s="60"/>
     </row>
     <row r="21" spans="2:2" ht="13.5" customHeight="1"/>
     <row r="22" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B22" s="61"/>
+      <c r="B22" s="60"/>
     </row>
     <row r="23" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B23" s="61"/>
+      <c r="B23" s="60"/>
     </row>
     <row r="24" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B24" s="61"/>
+      <c r="B24" s="60"/>
     </row>
     <row r="25" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B25" s="61"/>
+      <c r="B25" s="60"/>
     </row>
     <row r="26" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B26" s="61"/>
+      <c r="B26" s="60"/>
     </row>
     <row r="27" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B27" s="61"/>
+      <c r="B27" s="60"/>
     </row>
     <row r="28" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B28" s="61"/>
+      <c r="B28" s="60"/>
     </row>
     <row r="29" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B29" s="61"/>
+      <c r="B29" s="60"/>
     </row>
     <row r="30" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B30" s="61"/>
+      <c r="B30" s="60"/>
     </row>
     <row r="31" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B31" s="61"/>
+      <c r="B31" s="60"/>
     </row>
     <row r="32" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B32" s="61"/>
+      <c r="B32" s="60"/>
     </row>
     <row r="33" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B33" s="61"/>
+      <c r="B33" s="60"/>
     </row>
     <row r="34" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B34" s="61"/>
+      <c r="B34" s="60"/>
     </row>
     <row r="35" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B35" s="61"/>
+      <c r="B35" s="60"/>
     </row>
     <row r="36" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B36" s="61"/>
+      <c r="B36" s="60"/>
     </row>
     <row r="37" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B37" s="61"/>
+      <c r="B37" s="60"/>
     </row>
     <row r="38" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B38" s="61"/>
+      <c r="B38" s="60"/>
     </row>
     <row r="39" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B39" s="61"/>
+      <c r="B39" s="60"/>
     </row>
     <row r="40" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B40" s="61"/>
+      <c r="B40" s="60"/>
     </row>
     <row r="41" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B41" s="61"/>
+      <c r="B41" s="60"/>
     </row>
     <row r="42" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B42" s="61"/>
+      <c r="B42" s="60"/>
     </row>
     <row r="43" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B43" s="61"/>
+      <c r="B43" s="60"/>
     </row>
     <row r="44" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B44" s="61"/>
+      <c r="B44" s="60"/>
     </row>
     <row r="45" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B45" s="61"/>
+      <c r="B45" s="60"/>
     </row>
     <row r="46" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B46" s="61"/>
+      <c r="B46" s="60"/>
     </row>
     <row r="47" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B47" s="61"/>
+      <c r="B47" s="60"/>
     </row>
     <row r="48" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B48" s="61"/>
+      <c r="B48" s="60"/>
     </row>
     <row r="49" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B49" s="61"/>
+      <c r="B49" s="60"/>
     </row>
     <row r="50" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B50" s="61"/>
+      <c r="B50" s="60"/>
     </row>
     <row r="51" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B51" s="61"/>
+      <c r="B51" s="60"/>
     </row>
     <row r="52" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B52" s="61"/>
+      <c r="B52" s="60"/>
     </row>
     <row r="53" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B53" s="61"/>
+      <c r="B53" s="60"/>
     </row>
     <row r="54" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B54" s="61"/>
+      <c r="B54" s="60"/>
     </row>
     <row r="55" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B55" s="61"/>
+      <c r="B55" s="60"/>
     </row>
     <row r="56" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B56" s="61"/>
+      <c r="B56" s="60"/>
     </row>
     <row r="57" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B57" s="61"/>
+      <c r="B57" s="60"/>
     </row>
     <row r="58" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B58" s="61"/>
+      <c r="B58" s="60"/>
     </row>
     <row r="59" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B59" s="61"/>
+      <c r="B59" s="60"/>
     </row>
     <row r="60" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B60" s="61"/>
+      <c r="B60" s="60"/>
     </row>
     <row r="61" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B61" s="61"/>
+      <c r="B61" s="60"/>
     </row>
     <row r="62" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B62" s="61"/>
+      <c r="B62" s="60"/>
     </row>
     <row r="63" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B63" s="61"/>
+      <c r="B63" s="60"/>
     </row>
     <row r="64" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B64" s="61"/>
+      <c r="B64" s="60"/>
     </row>
     <row r="65" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B65" s="61"/>
+      <c r="B65" s="60"/>
     </row>
     <row r="66" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B66" s="61"/>
+      <c r="B66" s="60"/>
     </row>
     <row r="67" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B67" s="61"/>
+      <c r="B67" s="60"/>
     </row>
     <row r="68" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B68" s="61"/>
+      <c r="B68" s="60"/>
     </row>
     <row r="69" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B69" s="61"/>
+      <c r="B69" s="60"/>
     </row>
     <row r="70" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B70" s="61"/>
+      <c r="B70" s="60"/>
     </row>
     <row r="71" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B71" s="61"/>
+      <c r="B71" s="60"/>
     </row>
     <row r="72" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B72" s="61"/>
+      <c r="B72" s="60"/>
     </row>
     <row r="73" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B73" s="61"/>
+      <c r="B73" s="60"/>
     </row>
     <row r="74" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B74" s="61"/>
+      <c r="B74" s="60"/>
     </row>
     <row r="75" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B75" s="61"/>
+      <c r="B75" s="60"/>
     </row>
     <row r="76" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B76" s="61"/>
+      <c r="B76" s="60"/>
     </row>
     <row r="77" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B77" s="61"/>
+      <c r="B77" s="60"/>
     </row>
     <row r="78" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B78" s="61"/>
+      <c r="B78" s="60"/>
     </row>
     <row r="79" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B79" s="61"/>
+      <c r="B79" s="60"/>
     </row>
     <row r="80" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B80" s="61"/>
+      <c r="B80" s="60"/>
     </row>
     <row r="81" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B81" s="61"/>
+      <c r="B81" s="60"/>
     </row>
     <row r="82" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B82" s="61"/>
+      <c r="B82" s="60"/>
     </row>
     <row r="83" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B83" s="61"/>
+      <c r="B83" s="60"/>
     </row>
     <row r="84" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B84" s="61"/>
+      <c r="B84" s="60"/>
     </row>
     <row r="85" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B85" s="61"/>
+      <c r="B85" s="60"/>
     </row>
     <row r="86" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B86" s="61"/>
+      <c r="B86" s="60"/>
     </row>
     <row r="87" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B87" s="61"/>
+      <c r="B87" s="60"/>
     </row>
     <row r="88" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B88" s="61"/>
+      <c r="B88" s="60"/>
     </row>
     <row r="89" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B89" s="61"/>
+      <c r="B89" s="60"/>
     </row>
     <row r="90" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B90" s="61"/>
+      <c r="B90" s="60"/>
     </row>
     <row r="91" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B91" s="61"/>
+      <c r="B91" s="60"/>
     </row>
     <row r="92" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B92" s="61"/>
+      <c r="B92" s="60"/>
     </row>
     <row r="93" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B93" s="61"/>
+      <c r="B93" s="60"/>
     </row>
     <row r="94" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B94" s="61"/>
+      <c r="B94" s="60"/>
     </row>
     <row r="95" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B95" s="61"/>
+      <c r="B95" s="60"/>
     </row>
     <row r="96" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B96" s="61"/>
+      <c r="B96" s="60"/>
     </row>
     <row r="97" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B97" s="61"/>
+      <c r="B97" s="60"/>
     </row>
     <row r="98" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B98" s="61"/>
+      <c r="B98" s="60"/>
     </row>
     <row r="99" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B99" s="61"/>
+      <c r="B99" s="60"/>
     </row>
     <row r="100" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B100" s="61"/>
+      <c r="B100" s="60"/>
     </row>
     <row r="101" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B101" s="61"/>
+      <c r="B101" s="60"/>
     </row>
     <row r="102" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B102" s="61"/>
+      <c r="B102" s="60"/>
     </row>
     <row r="103" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B103" s="61"/>
+      <c r="B103" s="60"/>
     </row>
     <row r="104" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B104" s="61"/>
+      <c r="B104" s="60"/>
     </row>
     <row r="105" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B105" s="61"/>
+      <c r="B105" s="60"/>
     </row>
     <row r="106" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B106" s="61"/>
+      <c r="B106" s="60"/>
     </row>
     <row r="107" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B107" s="61"/>
+      <c r="B107" s="60"/>
     </row>
     <row r="108" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B108" s="61"/>
+      <c r="B108" s="60"/>
     </row>
     <row r="109" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B109" s="61"/>
+      <c r="B109" s="60"/>
     </row>
     <row r="110" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B110" s="61"/>
+      <c r="B110" s="60"/>
     </row>
     <row r="111" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B111" s="61"/>
+      <c r="B111" s="60"/>
     </row>
     <row r="112" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B112" s="61"/>
+      <c r="B112" s="60"/>
     </row>
     <row r="113" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B113" s="61"/>
+      <c r="B113" s="60"/>
     </row>
     <row r="114" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B114" s="61"/>
+      <c r="B114" s="60"/>
     </row>
     <row r="115" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B115" s="61"/>
+      <c r="B115" s="60"/>
     </row>
     <row r="116" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B116" s="61"/>
+      <c r="B116" s="60"/>
     </row>
     <row r="117" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B117" s="61"/>
+      <c r="B117" s="60"/>
     </row>
     <row r="118" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B118" s="61"/>
+      <c r="B118" s="60"/>
     </row>
     <row r="119" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B119" s="61"/>
+      <c r="B119" s="60"/>
     </row>
     <row r="120" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B120" s="61"/>
+      <c r="B120" s="60"/>
     </row>
     <row r="121" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B121" s="61"/>
+      <c r="B121" s="60"/>
     </row>
     <row r="122" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B122" s="61"/>
+      <c r="B122" s="60"/>
     </row>
     <row r="123" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B123" s="61"/>
+      <c r="B123" s="60"/>
     </row>
     <row r="124" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B124" s="61"/>
+      <c r="B124" s="60"/>
     </row>
     <row r="125" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B125" s="61"/>
+      <c r="B125" s="60"/>
     </row>
     <row r="126" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B126" s="61"/>
+      <c r="B126" s="60"/>
     </row>
     <row r="127" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B127" s="61"/>
+      <c r="B127" s="60"/>
     </row>
     <row r="128" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B128" s="61"/>
+      <c r="B128" s="60"/>
     </row>
     <row r="129" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B129" s="61"/>
+      <c r="B129" s="60"/>
     </row>
     <row r="130" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B130" s="61"/>
+      <c r="B130" s="60"/>
     </row>
     <row r="131" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B131" s="61"/>
+      <c r="B131" s="60"/>
     </row>
     <row r="132" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B132" s="61"/>
+      <c r="B132" s="60"/>
     </row>
     <row r="133" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B133" s="61"/>
+      <c r="B133" s="60"/>
     </row>
     <row r="134" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B134" s="61"/>
+      <c r="B134" s="60"/>
     </row>
     <row r="135" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B135" s="61"/>
+      <c r="B135" s="60"/>
     </row>
     <row r="136" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B136" s="61"/>
+      <c r="B136" s="60"/>
     </row>
     <row r="137" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B137" s="61"/>
+      <c r="B137" s="60"/>
     </row>
     <row r="138" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B138" s="61"/>
+      <c r="B138" s="60"/>
     </row>
     <row r="139" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B139" s="61"/>
+      <c r="B139" s="60"/>
     </row>
     <row r="140" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B140" s="61"/>
+      <c r="B140" s="60"/>
     </row>
     <row r="141" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B141" s="61"/>
+      <c r="B141" s="60"/>
     </row>
     <row r="142" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B142" s="61"/>
+      <c r="B142" s="60"/>
     </row>
     <row r="143" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B143" s="61"/>
+      <c r="B143" s="60"/>
     </row>
     <row r="144" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B144" s="61"/>
+      <c r="B144" s="60"/>
     </row>
     <row r="145" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B145" s="61"/>
+      <c r="B145" s="60"/>
     </row>
     <row r="146" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B146" s="61"/>
+      <c r="B146" s="60"/>
     </row>
     <row r="147" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B147" s="61"/>
+      <c r="B147" s="60"/>
     </row>
     <row r="148" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B148" s="61"/>
+      <c r="B148" s="60"/>
     </row>
     <row r="149" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B149" s="61"/>
+      <c r="B149" s="60"/>
     </row>
     <row r="150" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B150" s="61"/>
+      <c r="B150" s="60"/>
     </row>
     <row r="151" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B151" s="61"/>
+      <c r="B151" s="60"/>
     </row>
     <row r="152" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B152" s="61"/>
+      <c r="B152" s="60"/>
     </row>
     <row r="153" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B153" s="61"/>
+      <c r="B153" s="60"/>
     </row>
     <row r="154" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B154" s="61"/>
+      <c r="B154" s="60"/>
     </row>
     <row r="155" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B155" s="61"/>
+      <c r="B155" s="60"/>
     </row>
     <row r="156" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B156" s="61"/>
+      <c r="B156" s="60"/>
     </row>
     <row r="157" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B157" s="61"/>
+      <c r="B157" s="60"/>
     </row>
     <row r="158" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B158" s="61"/>
+      <c r="B158" s="60"/>
     </row>
     <row r="159" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B159" s="61"/>
+      <c r="B159" s="60"/>
     </row>
     <row r="160" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B160" s="61"/>
+      <c r="B160" s="60"/>
     </row>
     <row r="161" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B161" s="61"/>
+      <c r="B161" s="60"/>
     </row>
     <row r="162" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B162" s="61"/>
+      <c r="B162" s="60"/>
     </row>
     <row r="163" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B163" s="61"/>
+      <c r="B163" s="60"/>
     </row>
     <row r="164" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B164" s="61"/>
+      <c r="B164" s="60"/>
     </row>
     <row r="165" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B165" s="61"/>
+      <c r="B165" s="60"/>
     </row>
     <row r="166" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B166" s="61"/>
+      <c r="B166" s="60"/>
     </row>
     <row r="167" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B167" s="61"/>
+      <c r="B167" s="60"/>
     </row>
     <row r="168" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B168" s="61"/>
+      <c r="B168" s="60"/>
     </row>
     <row r="169" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B169" s="61"/>
+      <c r="B169" s="60"/>
     </row>
     <row r="170" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B170" s="61"/>
+      <c r="B170" s="60"/>
     </row>
     <row r="171" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B171" s="61"/>
+      <c r="B171" s="60"/>
     </row>
     <row r="172" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B172" s="61"/>
+      <c r="B172" s="60"/>
     </row>
     <row r="173" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B173" s="61"/>
+      <c r="B173" s="60"/>
     </row>
     <row r="174" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B174" s="61"/>
+      <c r="B174" s="60"/>
     </row>
     <row r="175" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B175" s="61"/>
+      <c r="B175" s="60"/>
     </row>
     <row r="176" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B176" s="61"/>
+      <c r="B176" s="60"/>
     </row>
     <row r="177" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B177" s="61"/>
+      <c r="B177" s="60"/>
     </row>
     <row r="178" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B178" s="61"/>
+      <c r="B178" s="60"/>
     </row>
     <row r="179" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B179" s="61"/>
+      <c r="B179" s="60"/>
     </row>
     <row r="180" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B180" s="61"/>
+      <c r="B180" s="60"/>
     </row>
     <row r="181" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B181" s="61"/>
+      <c r="B181" s="60"/>
     </row>
     <row r="182" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B182" s="61"/>
+      <c r="B182" s="60"/>
     </row>
     <row r="183" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B183" s="61"/>
+      <c r="B183" s="60"/>
     </row>
     <row r="184" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B184" s="61"/>
+      <c r="B184" s="60"/>
     </row>
     <row r="185" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B185" s="61"/>
+      <c r="B185" s="60"/>
     </row>
     <row r="186" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B186" s="61"/>
+      <c r="B186" s="60"/>
     </row>
     <row r="187" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B187" s="61"/>
+      <c r="B187" s="60"/>
     </row>
     <row r="188" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B188" s="61"/>
+      <c r="B188" s="60"/>
     </row>
     <row r="189" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B189" s="61"/>
+      <c r="B189" s="60"/>
     </row>
     <row r="190" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B190" s="61"/>
+      <c r="B190" s="60"/>
     </row>
     <row r="191" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B191" s="61"/>
+      <c r="B191" s="60"/>
     </row>
     <row r="192" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B192" s="61"/>
+      <c r="B192" s="60"/>
     </row>
     <row r="193" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B193" s="61"/>
+      <c r="B193" s="60"/>
     </row>
     <row r="194" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B194" s="61"/>
+      <c r="B194" s="60"/>
     </row>
     <row r="195" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B195" s="61"/>
+      <c r="B195" s="60"/>
     </row>
     <row r="196" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B196" s="61"/>
+      <c r="B196" s="60"/>
     </row>
     <row r="197" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B197" s="61"/>
+      <c r="B197" s="60"/>
     </row>
     <row r="198" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B198" s="61"/>
+      <c r="B198" s="60"/>
     </row>
     <row r="199" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B199" s="61"/>
+      <c r="B199" s="60"/>
     </row>
     <row r="200" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B200" s="61"/>
+      <c r="B200" s="60"/>
     </row>
     <row r="201" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B201" s="61"/>
+      <c r="B201" s="60"/>
     </row>
     <row r="202" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B202" s="61"/>
+      <c r="B202" s="60"/>
     </row>
     <row r="203" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B203" s="61"/>
+      <c r="B203" s="60"/>
     </row>
     <row r="204" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B204" s="61"/>
+      <c r="B204" s="60"/>
     </row>
     <row r="205" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B205" s="61"/>
+      <c r="B205" s="60"/>
     </row>
     <row r="206" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B206" s="61"/>
+      <c r="B206" s="60"/>
     </row>
     <row r="207" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B207" s="61"/>
+      <c r="B207" s="60"/>
     </row>
     <row r="208" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B208" s="61"/>
+      <c r="B208" s="60"/>
     </row>
     <row r="209" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B209" s="61"/>
+      <c r="B209" s="60"/>
     </row>
     <row r="210" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B210" s="61"/>
+      <c r="B210" s="60"/>
     </row>
     <row r="211" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B211" s="61"/>
+      <c r="B211" s="60"/>
     </row>
     <row r="212" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B212" s="61"/>
+      <c r="B212" s="60"/>
     </row>
     <row r="213" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B213" s="61"/>
+      <c r="B213" s="60"/>
     </row>
     <row r="214" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B214" s="61"/>
+      <c r="B214" s="60"/>
     </row>
     <row r="215" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B215" s="61"/>
+      <c r="B215" s="60"/>
     </row>
     <row r="216" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B216" s="61"/>
+      <c r="B216" s="60"/>
     </row>
     <row r="217" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B217" s="61"/>
+      <c r="B217" s="60"/>
     </row>
     <row r="218" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B218" s="61"/>
+      <c r="B218" s="60"/>
     </row>
     <row r="219" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B219" s="61"/>
+      <c r="B219" s="60"/>
     </row>
     <row r="220" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B220" s="61"/>
+      <c r="B220" s="60"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="222" spans="2:2" ht="15.75" customHeight="1"/>
@@ -5536,10 +5521,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3"/>
-    <hyperlink ref="F13" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId1" display="https://drive.google.com/file/d/1GslxGOr4VEe4u2FX3-cBx6vigqqVQPuc/view?usp=sharing"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://drive.google.com/file/d/1GslxGOr4VEe4u2FX3-cBx6vigqqVQPuc/view?usp=sharing"/>
+    <hyperlink ref="F13" r:id="rId3" display="https://drive.google.com/file/d/1GslxGOr4VEe4u2FX3-cBx6vigqqVQPuc/view?usp=sharing"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://drive.google.com/file/d/1GslxGOr4VEe4u2FX3-cBx6vigqqVQPuc/view?usp=sharing"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5551,7 +5540,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5672,19 +5661,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B5" s="88" t="s">
-        <v>357</v>
+      <c r="B5" s="87" t="s">
+        <v>353</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="42"/>
-      <c r="F5" s="136" t="s">
-        <v>358</v>
+      <c r="F5" s="135" t="s">
+        <v>354</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H5" s="44">
         <v>48</v>
@@ -5693,476 +5682,476 @@
         <v>32</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="65">
+        <v>54</v>
+      </c>
+      <c r="K5" s="64">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L5" s="132" t="s">
-        <v>360</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>39</v>
+      <c r="L5" s="131" t="s">
+        <v>356</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="41"/>
       <c r="E6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <v>11.025</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="52">
         <v>32</v>
       </c>
-      <c r="J6" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="54">
+      <c r="J6" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="53">
         <v>2.6157407407407407E-2</v>
       </c>
       <c r="L6" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="53">
+      <c r="F7" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="52">
         <v>11.025</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="52">
         <v>32</v>
       </c>
-      <c r="J7" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="55">
+      <c r="J7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="54">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="42"/>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="52">
+        <v>11.025</v>
+      </c>
+      <c r="I8" s="52">
+        <v>32</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="53">
+        <v>1.5509259259259259E-3</v>
+      </c>
+      <c r="L8" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="53">
-        <v>11.025</v>
-      </c>
-      <c r="I8" s="53">
-        <v>32</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="54">
-        <v>1.5509259259259259E-3</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="50"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="28"/>
-      <c r="F9" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="53">
+      <c r="F9" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="52">
         <v>11.025</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="52">
         <v>32</v>
       </c>
-      <c r="J9" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="55">
+      <c r="J9" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="54">
         <v>2.476851851851852E-3</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="50"/>
+        <v>59</v>
+      </c>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="53">
+      <c r="F10" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="52">
         <v>11.025</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="52">
         <v>32</v>
       </c>
-      <c r="J10" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="54">
+      <c r="J10" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="53">
         <v>2.5115740740740741E-3</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="50"/>
+        <v>62</v>
+      </c>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="53">
+      <c r="F11" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="52">
         <v>11.025</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="52">
         <v>32</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="54">
+      <c r="J11" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="53">
         <v>2.4537037037037036E-3</v>
       </c>
       <c r="L11" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="41"/>
       <c r="E12" s="42"/>
-      <c r="F12" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="53">
+      <c r="F12" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="52">
         <v>11.025</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="52">
         <v>32</v>
       </c>
-      <c r="J12" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="54">
+      <c r="J12" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="53">
         <v>4.8958333333333336E-3</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="50" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="53">
+      <c r="F13" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="52">
         <v>11.025</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="52">
         <v>32</v>
       </c>
-      <c r="J13" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="55">
+      <c r="J13" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="54">
         <v>2.3958333333333331E-3</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" s="50" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="53">
+      <c r="H14" s="52">
         <v>11.025</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="52">
         <v>32</v>
       </c>
-      <c r="J14" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="54">
+      <c r="J14" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="53">
         <v>1.337962962962963E-2</v>
       </c>
-      <c r="L14" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>39</v>
+      <c r="L14" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="53">
+      <c r="F15" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="52">
         <v>11.025</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="52">
         <v>32</v>
       </c>
-      <c r="J15" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="54">
+      <c r="J15" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="53">
         <v>2.3553240740740739E-2</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>39</v>
+        <v>73</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="42"/>
-      <c r="F16" s="64"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="45"/>
-      <c r="O16" s="50" t="s">
-        <v>39</v>
+      <c r="O16" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="13.5" customHeight="1">
       <c r="B17" s="39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="42"/>
-      <c r="F17" s="64"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
       <c r="L17" s="45"/>
-      <c r="O17" s="50" t="s">
-        <v>39</v>
+      <c r="O17" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="13.5" customHeight="1">
       <c r="B18" s="39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="53">
+      <c r="F18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="52">
         <v>11.025</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="52">
         <v>32</v>
       </c>
-      <c r="J18" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="54">
+      <c r="J18" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="53">
         <v>7.137731481481481E-2</v>
       </c>
-      <c r="L18" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="50" t="s">
-        <v>39</v>
+      <c r="L18" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="13.5" customHeight="1">
       <c r="B19" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="53">
+      <c r="F19" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="52">
         <v>11.025</v>
       </c>
       <c r="I19" s="44">
         <v>32</v>
       </c>
-      <c r="J19" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="65">
+      <c r="J19" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="64">
         <v>1.369212962962963E-2</v>
       </c>
-      <c r="L19" s="63" t="s">
-        <v>84</v>
+      <c r="L19" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="O19" s="50" t="s">
-        <v>39</v>
+      <c r="O19" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="O20" s="50" t="s">
-        <v>39</v>
+      <c r="B20" s="55"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="O20" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="13.5" customHeight="1">
@@ -8013,15 +8002,15 @@
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="72"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="10"/>
@@ -8070,7 +8059,7 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="73"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
@@ -8080,7 +8069,7 @@
       <c r="E3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="22"/>
       <c r="H3" s="24" t="s">
         <v>21</v>
@@ -8092,959 +8081,959 @@
       <c r="K3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="75"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="B4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="81"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
       <c r="N4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="53">
+      <c r="F5" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="52">
         <v>22.05</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="82">
         <v>24</v>
       </c>
-      <c r="J5" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="55">
+      <c r="J5" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="54">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="L5" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>91</v>
+      <c r="L5" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="83" t="s">
+      <c r="F6" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="52">
+        <v>22.05</v>
+      </c>
+      <c r="I6" s="82">
+        <v>24</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="54">
+        <v>3.2407407407407406E-4</v>
+      </c>
+      <c r="L6" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="53">
-        <v>22.05</v>
-      </c>
-      <c r="I6" s="83">
-        <v>24</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="55">
-        <v>3.2407407407407406E-4</v>
-      </c>
-      <c r="L6" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>91</v>
+      <c r="N6" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="53">
+      <c r="F7" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="52">
         <v>22.05</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="82">
         <v>24</v>
       </c>
-      <c r="J7" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="55">
+      <c r="J7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="54">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L7" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="50" t="s">
+      <c r="L7" s="83" t="s">
         <v>91</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="53">
+      <c r="F8" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="52">
         <v>22.05</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="82">
         <v>24</v>
       </c>
-      <c r="J8" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="55">
+      <c r="J8" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="54">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L8" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>91</v>
+      <c r="L8" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="85"/>
-      <c r="N9" s="50" t="s">
-        <v>91</v>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="84"/>
+      <c r="N9" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="85"/>
-      <c r="N10" s="50" t="s">
-        <v>91</v>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="84"/>
+      <c r="N10" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="53">
+      <c r="F11" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="52">
         <v>22.05</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="82">
         <v>24</v>
       </c>
-      <c r="J11" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="86">
+      <c r="J11" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="85">
         <v>8.6805555555555551E-4</v>
       </c>
-      <c r="L11" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>91</v>
+      <c r="L11" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="53">
+      <c r="F12" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="52">
         <v>22.05</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="82">
         <v>24</v>
       </c>
-      <c r="J12" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="86">
+      <c r="J12" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="85">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="L12" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="50"/>
+      <c r="L12" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="53">
+      <c r="F13" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="52">
         <v>22.05</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="82">
         <v>24</v>
       </c>
-      <c r="J13" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="86">
+      <c r="J13" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="85">
         <v>1.0069444444444444E-3</v>
       </c>
-      <c r="L13" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="50"/>
+      <c r="L13" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="53">
+      <c r="F14" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="52">
         <v>22.05</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="82">
         <v>24</v>
       </c>
-      <c r="J14" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="86">
+      <c r="J14" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="85">
         <v>9.3749999999999997E-4</v>
       </c>
-      <c r="L14" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="N14" s="50"/>
+      <c r="L14" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="53">
+      <c r="F15" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="52">
         <v>22.05</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="82">
         <v>24</v>
       </c>
-      <c r="J15" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="86">
+      <c r="J15" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="85">
         <v>7.9861111111111116E-4</v>
       </c>
-      <c r="L15" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" s="50"/>
+      <c r="L15" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="53">
+      <c r="F16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="52">
         <v>22.05</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="82">
         <v>24</v>
       </c>
-      <c r="J16" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="55">
+      <c r="J16" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="54">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="L16" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>91</v>
+      <c r="L16" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="88" t="s">
-        <v>112</v>
+      <c r="B17" s="87" t="s">
+        <v>108</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="53">
+      <c r="F17" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="52">
         <v>22.05</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="82">
         <v>24</v>
       </c>
-      <c r="J17" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="89">
+      <c r="J17" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="88">
         <v>1.4004629629629629E-3</v>
       </c>
-      <c r="L17" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" s="50" t="s">
-        <v>91</v>
+      <c r="L17" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="88" t="s">
-        <v>114</v>
+      <c r="B18" s="87" t="s">
+        <v>110</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="53">
+      <c r="F18" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="52">
         <v>22.05</v>
       </c>
-      <c r="I18" s="83">
+      <c r="I18" s="82">
         <v>24</v>
       </c>
-      <c r="J18" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="89">
+      <c r="J18" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="88">
         <v>1.2962962962962963E-3</v>
       </c>
-      <c r="L18" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="50"/>
+      <c r="L18" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="49"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="88" t="s">
-        <v>116</v>
+      <c r="B19" s="87" t="s">
+        <v>112</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="53">
+      <c r="F19" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="52">
         <v>22.05</v>
       </c>
-      <c r="I19" s="83">
+      <c r="I19" s="82">
         <v>24</v>
       </c>
-      <c r="J19" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="89">
+      <c r="J19" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="88">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="L19" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="50"/>
+      <c r="L19" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="88" t="s">
-        <v>118</v>
+      <c r="B20" s="87" t="s">
+        <v>114</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="53">
+      <c r="F20" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="52">
         <v>22.05</v>
       </c>
-      <c r="I20" s="83">
+      <c r="I20" s="82">
         <v>24</v>
       </c>
-      <c r="J20" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="89">
+      <c r="J20" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="88">
         <v>3.449074074074074E-3</v>
       </c>
-      <c r="L20" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="N20" s="50"/>
+      <c r="L20" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="49"/>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="53">
+      <c r="F21" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="52">
         <v>22.05</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="82">
         <v>24</v>
       </c>
-      <c r="J21" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="54">
+      <c r="J21" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="53">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="L21" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="N21" s="50" t="s">
-        <v>91</v>
+      <c r="L21" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="53">
+      <c r="F22" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="52">
         <v>22.05</v>
       </c>
-      <c r="I22" s="83">
+      <c r="I22" s="82">
         <v>24</v>
       </c>
-      <c r="J22" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="55">
+      <c r="J22" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="54">
         <v>6.8287037037037036E-4</v>
       </c>
-      <c r="L22" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>91</v>
+      <c r="L22" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="53">
+      <c r="F23" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="52">
         <v>22.05</v>
       </c>
-      <c r="I23" s="83">
+      <c r="I23" s="82">
         <v>24</v>
       </c>
-      <c r="J23" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="54">
+      <c r="J23" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="53">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="L23" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="N23" s="50" t="s">
-        <v>91</v>
+      <c r="L23" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="53">
+      <c r="F24" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="52">
         <v>16</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="52">
         <v>32</v>
       </c>
-      <c r="J24" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="54">
+      <c r="J24" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="53">
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="L24" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>128</v>
+      <c r="L24" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="B25" s="39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="53">
+      <c r="F25" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="52">
         <v>16</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="52">
         <v>32</v>
       </c>
-      <c r="J25" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="54">
+      <c r="J25" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="53">
         <v>1.5277777777777779E-3</v>
       </c>
-      <c r="L25" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="N25" s="50" t="s">
-        <v>128</v>
+      <c r="L25" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
       <c r="B26" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="53">
+      <c r="F26" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="52">
         <v>16</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="52">
         <v>32</v>
       </c>
-      <c r="J26" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="54">
+      <c r="J26" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="53">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="L26" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="N26" s="50" t="s">
+      <c r="L26" s="84" t="s">
         <v>128</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
       <c r="B27" s="39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="53">
+      <c r="F27" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="52">
         <v>16</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="52">
         <v>32</v>
       </c>
-      <c r="J27" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="54">
+      <c r="J27" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="53">
         <v>7.5231481481481482E-4</v>
       </c>
-      <c r="L27" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="N27" s="50" t="s">
-        <v>128</v>
+      <c r="L27" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
       <c r="B28" s="39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="53">
+      <c r="F28" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="52">
         <v>16</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="52">
         <v>32</v>
       </c>
-      <c r="J28" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="54">
+      <c r="J28" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="53">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="L28" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="N28" s="50" t="s">
-        <v>128</v>
+      <c r="L28" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" s="49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
       <c r="B29" s="39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="53">
+      <c r="F29" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="52">
         <v>22.05</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="52">
         <v>24</v>
       </c>
-      <c r="J29" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="54">
+      <c r="J29" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="53">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L29" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="N29" s="50" t="s">
-        <v>91</v>
+      <c r="L29" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
       <c r="B30" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="53">
+      <c r="F30" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="52">
         <v>22.05</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="52">
         <v>24</v>
       </c>
-      <c r="J30" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="54">
+      <c r="J30" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="53">
         <v>3.6805555555555554E-3</v>
       </c>
-      <c r="L30" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="N30" s="50" t="s">
-        <v>91</v>
+      <c r="L30" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="N30" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
       <c r="B31" s="39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="53">
+      <c r="F31" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="52">
         <v>16</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="52">
         <v>32</v>
       </c>
-      <c r="J31" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="54">
+      <c r="J31" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="53">
         <v>5.5439814814814813E-3</v>
       </c>
-      <c r="L31" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="N31" s="50" t="s">
-        <v>128</v>
+      <c r="L31" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="N31" s="49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57" t="s">
+      <c r="B32" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="69">
+      <c r="F32" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="68">
         <v>16</v>
       </c>
-      <c r="I32" s="69">
+      <c r="I32" s="68">
         <v>32</v>
       </c>
-      <c r="J32" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="70">
+      <c r="J32" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="69">
         <v>3.5185185185185185E-3</v>
       </c>
-      <c r="L32" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="N32" s="50" t="s">
-        <v>128</v>
+      <c r="L32" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" s="49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B33" s="92"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="2">
         <f>COUNTA(C4:C31)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="127">
+      <c r="D33" s="126">
         <f t="shared" ref="D33:E33" si="0">COUNTA(D4:D31)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="127">
+      <c r="E33" s="126">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B34" s="92"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B35" s="92"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -10823,7 +10812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -10843,7 +10832,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="31.5" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -10896,7 +10885,7 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="73"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
@@ -10927,7 +10916,7 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="93"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -10939,19 +10928,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B5" s="138" t="s">
-        <v>145</v>
+      <c r="B5" s="137" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="94" t="s">
-        <v>146</v>
+      <c r="F5" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H5" s="41">
         <v>22.05</v>
@@ -10962,30 +10951,30 @@
       <c r="J5" s="41">
         <v>1</v>
       </c>
-      <c r="K5" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>91</v>
+      <c r="K5" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="138" t="s">
-        <v>149</v>
+      <c r="B6" s="137" t="s">
+        <v>145</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="94" t="s">
-        <v>146</v>
+      <c r="F6" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H6" s="41">
         <v>22.05</v>
@@ -10996,28 +10985,28 @@
       <c r="J6" s="41">
         <v>1</v>
       </c>
-      <c r="K6" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="N6" s="50"/>
+      <c r="K6" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="138" t="s">
-        <v>152</v>
+      <c r="B7" s="137" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="94" t="s">
-        <v>146</v>
+      <c r="F7" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H7" s="41">
         <v>22.05</v>
@@ -11028,30 +11017,30 @@
       <c r="J7" s="41">
         <v>1</v>
       </c>
-      <c r="K7" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>91</v>
+      <c r="K7" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="138" t="s">
-        <v>155</v>
+      <c r="B8" s="137" t="s">
+        <v>151</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
-      <c r="F8" s="94" t="s">
-        <v>146</v>
+      <c r="F8" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H8" s="41">
         <v>22.05</v>
@@ -11062,30 +11051,30 @@
       <c r="J8" s="41">
         <v>1</v>
       </c>
-      <c r="K8" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>91</v>
+      <c r="K8" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
-        <v>158</v>
+      <c r="B9" s="137" t="s">
+        <v>154</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="94" t="s">
-        <v>146</v>
+      <c r="F9" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H9" s="41">
         <v>22.05</v>
@@ -11096,28 +11085,28 @@
       <c r="J9" s="41">
         <v>1</v>
       </c>
-      <c r="K9" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="N9" s="50"/>
+      <c r="K9" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="138" t="s">
-        <v>161</v>
+      <c r="B10" s="137" t="s">
+        <v>157</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="94" t="s">
-        <v>146</v>
+      <c r="F10" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H10" s="41">
         <v>22.05</v>
@@ -11128,30 +11117,30 @@
       <c r="J10" s="41">
         <v>1</v>
       </c>
-      <c r="K10" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="50" t="s">
-        <v>91</v>
+      <c r="K10" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="138" t="s">
-        <v>164</v>
+      <c r="B11" s="137" t="s">
+        <v>160</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="94" t="s">
-        <v>146</v>
+      <c r="F11" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H11" s="41">
         <v>22.05</v>
@@ -11162,30 +11151,30 @@
       <c r="J11" s="41">
         <v>1</v>
       </c>
-      <c r="K11" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="L11" s="98" t="s">
-        <v>166</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>91</v>
+      <c r="K11" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="138" t="s">
-        <v>167</v>
+      <c r="B12" s="137" t="s">
+        <v>163</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="94" t="s">
-        <v>146</v>
+      <c r="F12" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H12" s="41">
         <v>22.05</v>
@@ -11196,30 +11185,30 @@
       <c r="J12" s="41">
         <v>1</v>
       </c>
-      <c r="K12" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>91</v>
+      <c r="K12" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="138" t="s">
-        <v>170</v>
+      <c r="B13" s="137" t="s">
+        <v>166</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="94" t="s">
-        <v>146</v>
+      <c r="F13" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H13" s="41">
         <v>22.05</v>
@@ -11230,30 +11219,30 @@
       <c r="J13" s="41">
         <v>1</v>
       </c>
-      <c r="K13" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="98" t="s">
-        <v>172</v>
-      </c>
-      <c r="N13" s="50" t="s">
-        <v>91</v>
+      <c r="K13" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="138" t="s">
-        <v>173</v>
+      <c r="B14" s="137" t="s">
+        <v>169</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="94" t="s">
-        <v>146</v>
+      <c r="F14" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H14" s="41">
         <v>22.05</v>
@@ -11264,30 +11253,30 @@
       <c r="J14" s="41">
         <v>1</v>
       </c>
-      <c r="K14" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="98" t="s">
-        <v>175</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>91</v>
+      <c r="K14" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="97" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="138" t="s">
-        <v>176</v>
+      <c r="B15" s="137" t="s">
+        <v>172</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="94" t="s">
-        <v>146</v>
+      <c r="F15" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H15" s="41">
         <v>22.05</v>
@@ -11298,30 +11287,30 @@
       <c r="J15" s="41">
         <v>1</v>
       </c>
-      <c r="K15" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="L15" s="98" t="s">
-        <v>178</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>91</v>
+      <c r="K15" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="138" t="s">
-        <v>179</v>
+      <c r="B16" s="137" t="s">
+        <v>175</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="94" t="s">
-        <v>146</v>
+      <c r="F16" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H16" s="41">
         <v>22.05</v>
@@ -11332,30 +11321,30 @@
       <c r="J16" s="41">
         <v>1</v>
       </c>
-      <c r="K16" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="98" t="s">
-        <v>181</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>91</v>
+      <c r="K16" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="138" t="s">
-        <v>182</v>
+      <c r="B17" s="137" t="s">
+        <v>178</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="94" t="s">
-        <v>146</v>
+      <c r="F17" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H17" s="41">
         <v>22.05</v>
@@ -11366,28 +11355,28 @@
       <c r="J17" s="41">
         <v>1</v>
       </c>
-      <c r="K17" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="L17" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="N17" s="50"/>
+      <c r="K17" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="138" t="s">
-        <v>185</v>
+      <c r="B18" s="137" t="s">
+        <v>181</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="94" t="s">
-        <v>146</v>
+      <c r="F18" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H18" s="41">
         <v>22.05</v>
@@ -11398,28 +11387,28 @@
       <c r="J18" s="41">
         <v>1</v>
       </c>
-      <c r="K18" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="L18" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="N18" s="50"/>
+      <c r="K18" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="N18" s="49"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="138" t="s">
-        <v>188</v>
+      <c r="B19" s="137" t="s">
+        <v>184</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="94" t="s">
-        <v>146</v>
+      <c r="F19" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H19" s="41">
         <v>22.05</v>
@@ -11430,70 +11419,70 @@
       <c r="J19" s="41">
         <v>1</v>
       </c>
-      <c r="K19" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="N19" s="50" t="s">
-        <v>91</v>
+      <c r="K19" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="94"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="N20" s="50" t="s">
-        <v>91</v>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
+      <c r="N20" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="94"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
-      <c r="N21" s="50" t="s">
-        <v>91</v>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
+      <c r="N21" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="138" t="s">
-        <v>193</v>
+      <c r="B22" s="137" t="s">
+        <v>189</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="94" t="s">
-        <v>146</v>
+      <c r="F22" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H22" s="41">
         <v>22.05</v>
@@ -11504,31 +11493,31 @@
       <c r="J22" s="41">
         <v>1</v>
       </c>
-      <c r="K22" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="L22" s="98" t="s">
-        <v>195</v>
+      <c r="K22" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="97" t="s">
+        <v>191</v>
       </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="50" t="s">
-        <v>91</v>
+      <c r="N22" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="138" t="s">
-        <v>196</v>
+      <c r="B23" s="137" t="s">
+        <v>192</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="94" t="s">
-        <v>146</v>
+      <c r="F23" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H23" s="41">
         <v>22.05</v>
@@ -11539,31 +11528,31 @@
       <c r="J23" s="41">
         <v>1</v>
       </c>
-      <c r="K23" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="L23" s="98" t="s">
-        <v>198</v>
+      <c r="K23" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="97" t="s">
+        <v>194</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="50" t="s">
-        <v>91</v>
+      <c r="N23" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="138" t="s">
-        <v>199</v>
+      <c r="B24" s="137" t="s">
+        <v>195</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="94" t="s">
-        <v>146</v>
+      <c r="F24" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H24" s="41">
         <v>22.05</v>
@@ -11574,31 +11563,31 @@
       <c r="J24" s="41">
         <v>1</v>
       </c>
-      <c r="K24" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="98" t="s">
-        <v>200</v>
+      <c r="K24" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="97" t="s">
+        <v>196</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="50" t="s">
-        <v>91</v>
+      <c r="N24" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B25" s="138" t="s">
-        <v>201</v>
+      <c r="B25" s="137" t="s">
+        <v>197</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="94" t="s">
-        <v>146</v>
+      <c r="F25" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H25" s="41">
         <v>22.05</v>
@@ -11609,31 +11598,31 @@
       <c r="J25" s="41">
         <v>1</v>
       </c>
-      <c r="K25" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="L25" s="98" t="s">
-        <v>203</v>
+      <c r="K25" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="97" t="s">
+        <v>199</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="50" t="s">
-        <v>91</v>
+      <c r="N25" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B26" s="138" t="s">
-        <v>204</v>
+      <c r="B26" s="137" t="s">
+        <v>200</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="94" t="s">
-        <v>146</v>
+      <c r="F26" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H26" s="41">
         <v>22.05</v>
@@ -11644,34 +11633,34 @@
       <c r="J26" s="41">
         <v>1</v>
       </c>
-      <c r="K26" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="98" t="s">
-        <v>206</v>
+      <c r="K26" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" s="97" t="s">
+        <v>202</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="50" t="s">
-        <v>91</v>
+      <c r="N26" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="138" t="s">
-        <v>207</v>
+      <c r="B27" s="137" t="s">
+        <v>203</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="94" t="s">
-        <v>208</v>
+      <c r="F27" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I27" s="41">
         <v>24</v>
@@ -11679,34 +11668,34 @@
       <c r="J27" s="41">
         <v>1</v>
       </c>
-      <c r="K27" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="L27" s="96" t="s">
-        <v>211</v>
+      <c r="K27" s="94" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="50" t="s">
-        <v>91</v>
+      <c r="N27" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="138" t="s">
-        <v>212</v>
+      <c r="B28" s="137" t="s">
+        <v>208</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="94" t="s">
-        <v>208</v>
+      <c r="F28" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I28" s="41">
         <v>24</v>
@@ -11714,34 +11703,34 @@
       <c r="J28" s="41">
         <v>1</v>
       </c>
-      <c r="K28" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="96" t="s">
-        <v>211</v>
+      <c r="K28" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="50" t="s">
-        <v>91</v>
+      <c r="N28" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B29" s="138" t="s">
-        <v>214</v>
+      <c r="B29" s="137" t="s">
+        <v>210</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="94" t="s">
-        <v>208</v>
+      <c r="F29" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I29" s="41">
         <v>24</v>
@@ -11749,34 +11738,34 @@
       <c r="J29" s="41">
         <v>1</v>
       </c>
-      <c r="K29" s="95" t="s">
-        <v>215</v>
-      </c>
-      <c r="L29" s="96" t="s">
+      <c r="K29" s="94" t="s">
         <v>211</v>
       </c>
+      <c r="L29" s="95" t="s">
+        <v>207</v>
+      </c>
       <c r="M29" s="3"/>
-      <c r="N29" s="50" t="s">
-        <v>91</v>
+      <c r="N29" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B30" s="138" t="s">
-        <v>216</v>
+      <c r="B30" s="137" t="s">
+        <v>212</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="94" t="s">
-        <v>208</v>
+      <c r="F30" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I30" s="41">
         <v>24</v>
@@ -11784,34 +11773,34 @@
       <c r="J30" s="41">
         <v>1</v>
       </c>
-      <c r="K30" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="L30" s="96" t="s">
-        <v>211</v>
+      <c r="K30" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="50" t="s">
-        <v>91</v>
+      <c r="N30" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B31" s="138" t="s">
-        <v>218</v>
+      <c r="B31" s="137" t="s">
+        <v>214</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="94" t="s">
-        <v>208</v>
+      <c r="F31" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I31" s="41">
         <v>24</v>
@@ -11819,34 +11808,34 @@
       <c r="J31" s="41">
         <v>1</v>
       </c>
-      <c r="K31" s="95" t="s">
-        <v>189</v>
-      </c>
-      <c r="L31" s="96" t="s">
-        <v>211</v>
+      <c r="K31" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="50" t="s">
-        <v>91</v>
+      <c r="N31" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="138" t="s">
-        <v>219</v>
+      <c r="B32" s="137" t="s">
+        <v>215</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="94" t="s">
-        <v>208</v>
+      <c r="F32" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I32" s="41">
         <v>24</v>
@@ -11854,34 +11843,34 @@
       <c r="J32" s="41">
         <v>1</v>
       </c>
-      <c r="K32" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="96" t="s">
-        <v>211</v>
+      <c r="K32" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="50" t="s">
-        <v>91</v>
+      <c r="N32" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="13.5" customHeight="1">
-      <c r="B33" s="138" t="s">
-        <v>222</v>
+      <c r="B33" s="137" t="s">
+        <v>218</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="94" t="s">
-        <v>208</v>
+      <c r="F33" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I33" s="41">
         <v>24</v>
@@ -11889,34 +11878,34 @@
       <c r="J33" s="41">
         <v>1</v>
       </c>
-      <c r="K33" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="L33" s="96" t="s">
-        <v>211</v>
+      <c r="K33" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="M33" s="3"/>
-      <c r="N33" s="50" t="s">
-        <v>91</v>
+      <c r="N33" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="13.5" customHeight="1">
       <c r="B34" s="39" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="94" t="s">
-        <v>208</v>
+      <c r="F34" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I34" s="41">
         <v>24</v>
@@ -11924,33 +11913,33 @@
       <c r="J34" s="41">
         <v>1</v>
       </c>
-      <c r="K34" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="L34" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="N34" s="50" t="s">
-        <v>91</v>
+      <c r="K34" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="N34" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="13.5" customHeight="1">
       <c r="B35" s="39" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="94" t="s">
-        <v>208</v>
+      <c r="F35" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I35" s="41">
         <v>24</v>
@@ -11958,33 +11947,33 @@
       <c r="J35" s="41">
         <v>1</v>
       </c>
-      <c r="K35" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="N35" s="50" t="s">
-        <v>91</v>
+      <c r="K35" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="N35" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="13.5" customHeight="1">
       <c r="B36" s="39" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
-      <c r="F36" s="94" t="s">
-        <v>208</v>
+      <c r="F36" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I36" s="41">
         <v>24</v>
@@ -11992,34 +11981,34 @@
       <c r="J36" s="41">
         <v>1</v>
       </c>
-      <c r="K36" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="L36" s="96" t="s">
+      <c r="K36" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="N36" s="50" t="s">
-        <v>91</v>
+      <c r="L36" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>87</v>
       </c>
       <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="2:17" ht="13.5" customHeight="1">
       <c r="B37" s="39" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
-      <c r="F37" s="94" t="s">
-        <v>232</v>
+      <c r="F37" s="93" t="s">
+        <v>228</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I37" s="41">
         <v>24</v>
@@ -12027,33 +12016,33 @@
       <c r="J37" s="41">
         <v>1</v>
       </c>
-      <c r="K37" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="L37" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="N37" s="50" t="s">
-        <v>91</v>
+      <c r="K37" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="L37" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="13.5" customHeight="1">
       <c r="B38" s="39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="94" t="s">
-        <v>232</v>
+      <c r="F38" s="93" t="s">
+        <v>228</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I38" s="41">
         <v>24</v>
@@ -12061,33 +12050,33 @@
       <c r="J38" s="41">
         <v>1</v>
       </c>
-      <c r="K38" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="L38" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="N38" s="50" t="s">
-        <v>91</v>
+      <c r="K38" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="N38" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="13.5" customHeight="1">
       <c r="B39" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="94" t="s">
-        <v>232</v>
+      <c r="F39" s="93" t="s">
+        <v>228</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I39" s="41">
         <v>24</v>
@@ -12095,19 +12084,19 @@
       <c r="J39" s="41">
         <v>1</v>
       </c>
-      <c r="K39" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="L39" s="96" t="s">
+      <c r="K39" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="N39" s="50" t="s">
-        <v>91</v>
+      <c r="L39" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="N39" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="13.5" customHeight="1">
       <c r="B40" s="39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>18</v>
@@ -12119,15 +12108,15 @@
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="100"/>
-      <c r="N40" s="50" t="s">
-        <v>91</v>
+      <c r="K40" s="94"/>
+      <c r="L40" s="99"/>
+      <c r="N40" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="13.5" customHeight="1">
       <c r="B41" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>18</v>
@@ -12139,15 +12128,15 @@
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="100"/>
-      <c r="N41" s="50" t="s">
-        <v>91</v>
+      <c r="K41" s="94"/>
+      <c r="L41" s="99"/>
+      <c r="N41" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="13.5" customHeight="1">
       <c r="B42" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>18</v>
@@ -12160,14 +12149,14 @@
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="96"/>
-      <c r="N42" s="50" t="s">
-        <v>91</v>
+      <c r="L42" s="95"/>
+      <c r="N42" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="13.5" customHeight="1">
       <c r="B43" s="39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>18</v>
@@ -12175,13 +12164,13 @@
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I43" s="41">
         <v>24</v>
@@ -12189,33 +12178,33 @@
       <c r="J43" s="41">
         <v>2</v>
       </c>
-      <c r="K43" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="L43" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="N43" s="50" t="s">
-        <v>91</v>
+      <c r="K43" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="L43" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="N43" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="13.5" customHeight="1">
-      <c r="B44" s="103" t="s">
-        <v>247</v>
+      <c r="B44" s="102" t="s">
+        <v>243</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
-      <c r="F44" s="94" t="s">
-        <v>146</v>
+      <c r="F44" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I44" s="41">
         <v>24</v>
@@ -12223,17 +12212,17 @@
       <c r="J44" s="41">
         <v>1</v>
       </c>
-      <c r="K44" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="L44" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="N44" s="50"/>
+      <c r="K44" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="N44" s="49"/>
     </row>
     <row r="45" spans="2:17" ht="13.5" customHeight="1">
-      <c r="B45" s="103" t="s">
-        <v>249</v>
+      <c r="B45" s="102" t="s">
+        <v>245</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>18</v>
@@ -12241,13 +12230,13 @@
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I45" s="41">
         <v>24</v>
@@ -12255,17 +12244,17 @@
       <c r="J45" s="41">
         <v>1</v>
       </c>
-      <c r="K45" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="L45" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="N45" s="50"/>
+      <c r="K45" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="L45" s="99" t="s">
+        <v>248</v>
+      </c>
+      <c r="N45" s="49"/>
     </row>
     <row r="46" spans="2:17" ht="13.5" customHeight="1">
       <c r="B46" s="39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>18</v>
@@ -12273,13 +12262,13 @@
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I46" s="41">
         <v>24</v>
@@ -12287,33 +12276,33 @@
       <c r="J46" s="41">
         <v>1</v>
       </c>
-      <c r="K46" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="L46" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="N46" s="50" t="s">
-        <v>91</v>
+      <c r="K46" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="L46" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N46" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="13.5" customHeight="1">
       <c r="B47" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
-      <c r="F47" s="94" t="s">
-        <v>146</v>
+      <c r="F47" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I47" s="41">
         <v>24</v>
@@ -12321,19 +12310,19 @@
       <c r="J47" s="41">
         <v>1</v>
       </c>
-      <c r="K47" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="L47" s="96" t="s">
-        <v>256</v>
-      </c>
-      <c r="N47" s="50" t="s">
-        <v>91</v>
+      <c r="K47" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="L47" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="N47" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="13.5" customHeight="1">
       <c r="B48" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>18</v>
@@ -12341,13 +12330,13 @@
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
       <c r="F48" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I48" s="41">
         <v>24</v>
@@ -12355,19 +12344,19 @@
       <c r="J48" s="41">
         <v>1</v>
       </c>
-      <c r="K48" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="L48" s="96" t="s">
-        <v>259</v>
-      </c>
-      <c r="N48" s="50" t="s">
-        <v>91</v>
+      <c r="K48" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="L48" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="N48" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="13.5" customHeight="1">
       <c r="B49" s="39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C49" s="41" t="s">
         <v>18</v>
@@ -12375,13 +12364,13 @@
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I49" s="41">
         <v>24</v>
@@ -12389,19 +12378,19 @@
       <c r="J49" s="41">
         <v>1</v>
       </c>
-      <c r="K49" s="95" t="s">
-        <v>261</v>
-      </c>
-      <c r="L49" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="N49" s="50" t="s">
-        <v>91</v>
+      <c r="K49" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="L49" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="13.5" customHeight="1">
       <c r="B50" s="39" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C50" s="41" t="s">
         <v>18</v>
@@ -12409,13 +12398,13 @@
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I50" s="41">
         <v>24</v>
@@ -12423,19 +12412,19 @@
       <c r="J50" s="41">
         <v>1</v>
       </c>
-      <c r="K50" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="L50" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="N50" s="50" t="s">
-        <v>91</v>
+      <c r="K50" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="L50" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="N50" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="13.5" customHeight="1">
       <c r="B51" s="39" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>18</v>
@@ -12443,13 +12432,13 @@
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I51" s="41">
         <v>24</v>
@@ -12457,19 +12446,19 @@
       <c r="J51" s="41">
         <v>1</v>
       </c>
-      <c r="K51" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="L51" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="N51" s="50" t="s">
-        <v>91</v>
+      <c r="K51" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="L51" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="N51" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="13.5" customHeight="1">
       <c r="B52" s="39" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>18</v>
@@ -12481,15 +12470,15 @@
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
       <c r="J52" s="41"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="96"/>
-      <c r="N52" s="50" t="s">
-        <v>91</v>
+      <c r="K52" s="94"/>
+      <c r="L52" s="95"/>
+      <c r="N52" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="13.5" customHeight="1">
       <c r="B53" s="39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>18</v>
@@ -12501,16 +12490,16 @@
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
       <c r="J53" s="41"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="96"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="95"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="50" t="s">
-        <v>91</v>
+      <c r="N53" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="13.5" customHeight="1">
       <c r="B54" s="39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>18</v>
@@ -12522,16 +12511,16 @@
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="96"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="95"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="50" t="s">
-        <v>91</v>
+      <c r="N54" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="13.5" customHeight="1">
       <c r="B55" s="39" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>18</v>
@@ -12543,16 +12532,16 @@
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
       <c r="J55" s="41"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="96"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="95"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="50" t="s">
-        <v>91</v>
+      <c r="N55" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="13.5" customHeight="1">
       <c r="B56" s="39" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>18</v>
@@ -12560,13 +12549,13 @@
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I56" s="41">
         <v>24</v>
@@ -12574,20 +12563,20 @@
       <c r="J56" s="41">
         <v>1</v>
       </c>
-      <c r="K56" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="L56" s="96" t="s">
-        <v>275</v>
+      <c r="K56" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="L56" s="95" t="s">
+        <v>271</v>
       </c>
       <c r="M56" s="3"/>
-      <c r="N56" s="50" t="s">
-        <v>91</v>
+      <c r="N56" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="13.5" customHeight="1">
       <c r="B57" s="39" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>18</v>
@@ -12595,13 +12584,13 @@
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I57" s="41">
         <v>24</v>
@@ -12609,20 +12598,20 @@
       <c r="J57" s="41">
         <v>1</v>
       </c>
-      <c r="K57" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="L57" s="96" t="s">
-        <v>278</v>
+      <c r="K57" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="L57" s="95" t="s">
+        <v>274</v>
       </c>
       <c r="M57" s="3"/>
-      <c r="N57" s="50" t="s">
-        <v>91</v>
+      <c r="N57" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="13.5" customHeight="1">
       <c r="B58" s="39" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>18</v>
@@ -12630,13 +12619,13 @@
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
       <c r="F58" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I58" s="41">
         <v>24</v>
@@ -12644,63 +12633,63 @@
       <c r="J58" s="41">
         <v>1</v>
       </c>
-      <c r="K58" s="95" t="s">
+      <c r="K58" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="L58" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B59" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="L58" s="96" t="s">
-        <v>281</v>
-      </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B59" s="56" t="s">
+      <c r="G59" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I59" s="65">
+        <v>24</v>
+      </c>
+      <c r="J59" s="65">
+        <v>1</v>
+      </c>
+      <c r="K59" s="108" t="s">
+        <v>282</v>
+      </c>
+      <c r="L59" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="C59" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="107" t="s">
-        <v>284</v>
-      </c>
-      <c r="G59" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="H59" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="I59" s="66">
-        <v>24</v>
-      </c>
-      <c r="J59" s="66">
-        <v>1</v>
-      </c>
-      <c r="K59" s="109" t="s">
-        <v>286</v>
-      </c>
-      <c r="L59" s="111" t="s">
-        <v>287</v>
-      </c>
       <c r="M59" s="3"/>
-      <c r="N59" s="50" t="s">
-        <v>91</v>
+      <c r="N59" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B60" s="112"/>
-      <c r="C60" s="141">
+      <c r="B60" s="111"/>
+      <c r="C60" s="140">
         <f>COUNTA(C4:C59)</f>
         <v>55</v>
       </c>
-      <c r="D60" s="141">
+      <c r="D60" s="140">
         <f t="shared" ref="D60:E60" si="0">COUNTA(D4:D59)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="141">
+      <c r="E60" s="140">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14508,7 +14497,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="41.25" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -14561,7 +14550,7 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="73"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
@@ -14592,651 +14581,651 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="134"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="133"/>
       <c r="N4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B5" s="138" t="s">
-        <v>345</v>
+      <c r="B5" s="137" t="s">
+        <v>341</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="41"/>
-      <c r="F5" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="G5" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="133" t="s">
+      <c r="F5" s="128" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I5" s="126">
+        <v>32</v>
+      </c>
+      <c r="J5" s="126">
+        <v>2</v>
+      </c>
+      <c r="K5" s="136" t="s">
         <v>361</v>
       </c>
-      <c r="I5" s="127">
-        <v>32</v>
-      </c>
-      <c r="J5" s="127">
-        <v>2</v>
-      </c>
-      <c r="K5" s="137" t="s">
-        <v>365</v>
-      </c>
-      <c r="L5" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>43</v>
+      <c r="L5" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="138" t="s">
-        <v>346</v>
+      <c r="B6" s="137" t="s">
+        <v>342</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="G6" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="133" t="s">
+      <c r="F6" s="128" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" s="126">
+        <v>32</v>
+      </c>
+      <c r="J6" s="126">
+        <v>2</v>
+      </c>
+      <c r="K6" s="136" t="s">
         <v>361</v>
       </c>
-      <c r="I6" s="127">
-        <v>32</v>
-      </c>
-      <c r="J6" s="127">
-        <v>2</v>
-      </c>
-      <c r="K6" s="137" t="s">
-        <v>365</v>
-      </c>
-      <c r="L6" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>43</v>
+      <c r="L6" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="138" t="s">
-        <v>343</v>
+      <c r="B7" s="137" t="s">
+        <v>339</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="27"/>
-      <c r="F7" s="129" t="s">
-        <v>372</v>
-      </c>
-      <c r="G7" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="133" t="s">
+      <c r="F7" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I7" s="126">
+        <v>32</v>
+      </c>
+      <c r="J7" s="126">
+        <v>2</v>
+      </c>
+      <c r="K7" s="136" t="s">
         <v>361</v>
       </c>
-      <c r="I7" s="127">
-        <v>32</v>
-      </c>
-      <c r="J7" s="127">
-        <v>2</v>
-      </c>
-      <c r="K7" s="137" t="s">
-        <v>365</v>
-      </c>
-      <c r="L7" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>43</v>
+      <c r="L7" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="138" t="s">
-        <v>354</v>
+      <c r="B8" s="137" t="s">
+        <v>350</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="129" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="133" t="s">
+      <c r="F8" s="128" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I8" s="126">
+        <v>32</v>
+      </c>
+      <c r="J8" s="126">
+        <v>2</v>
+      </c>
+      <c r="K8" s="136" t="s">
         <v>361</v>
       </c>
-      <c r="I8" s="127">
+      <c r="L8" s="133" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B9" s="137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="132" t="s">
+        <v>359</v>
+      </c>
+      <c r="I9" s="126">
         <v>32</v>
       </c>
-      <c r="J8" s="127">
+      <c r="J9" s="126">
         <v>2</v>
       </c>
-      <c r="K8" s="137" t="s">
-        <v>365</v>
-      </c>
-      <c r="L8" s="134" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="129" t="s">
-        <v>372</v>
-      </c>
-      <c r="G9" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="133" t="s">
-        <v>363</v>
-      </c>
-      <c r="I9" s="127">
-        <v>32</v>
-      </c>
-      <c r="J9" s="127">
-        <v>2</v>
-      </c>
-      <c r="K9" s="137" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>91</v>
+      <c r="K9" s="136" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B10" s="138" t="s">
-        <v>347</v>
+      <c r="B10" s="137" t="s">
+        <v>343</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="41"/>
-      <c r="F10" s="129" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="133" t="s">
-        <v>361</v>
-      </c>
-      <c r="I10" s="127">
+      <c r="F10" s="128" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I10" s="126">
         <v>32</v>
       </c>
-      <c r="J10" s="127">
+      <c r="J10" s="126">
         <v>2</v>
       </c>
-      <c r="K10" s="137" t="s">
-        <v>328</v>
-      </c>
-      <c r="L10" s="134" t="s">
-        <v>362</v>
+      <c r="K10" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="L10" s="133" t="s">
+        <v>358</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="50" t="s">
-        <v>43</v>
+      <c r="N10" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="138" t="s">
-        <v>348</v>
+      <c r="B11" s="137" t="s">
+        <v>344</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="41"/>
-      <c r="F11" s="129" t="s">
-        <v>374</v>
-      </c>
-      <c r="G11" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="133" t="s">
-        <v>361</v>
-      </c>
-      <c r="I11" s="127">
+      <c r="F11" s="128" t="s">
+        <v>370</v>
+      </c>
+      <c r="G11" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" s="126">
         <v>32</v>
       </c>
-      <c r="J11" s="127">
+      <c r="J11" s="126">
         <v>2</v>
       </c>
-      <c r="K11" s="137" t="s">
-        <v>366</v>
-      </c>
-      <c r="L11" s="134" t="s">
+      <c r="K11" s="136" t="s">
         <v>362</v>
       </c>
+      <c r="L11" s="133" t="s">
+        <v>358</v>
+      </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="50" t="s">
-        <v>43</v>
+      <c r="N11" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="138" t="s">
-        <v>349</v>
+      <c r="B12" s="137" t="s">
+        <v>345</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="41"/>
-      <c r="F12" s="129" t="s">
-        <v>374</v>
-      </c>
-      <c r="G12" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="133" t="s">
-        <v>361</v>
-      </c>
-      <c r="I12" s="127">
+      <c r="F12" s="128" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I12" s="126">
         <v>32</v>
       </c>
-      <c r="J12" s="127">
+      <c r="J12" s="126">
         <v>2</v>
       </c>
-      <c r="K12" s="137" t="s">
-        <v>367</v>
-      </c>
-      <c r="L12" s="134" t="s">
-        <v>362</v>
+      <c r="K12" s="136" t="s">
+        <v>363</v>
+      </c>
+      <c r="L12" s="133" t="s">
+        <v>358</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="50" t="s">
-        <v>43</v>
+      <c r="N12" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="138" t="s">
-        <v>350</v>
+      <c r="B13" s="137" t="s">
+        <v>346</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="41"/>
-      <c r="F13" s="129" t="s">
-        <v>375</v>
-      </c>
-      <c r="G13" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="133" t="s">
-        <v>361</v>
-      </c>
-      <c r="I13" s="127">
+      <c r="F13" s="128" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I13" s="126">
         <v>32</v>
       </c>
-      <c r="J13" s="127">
+      <c r="J13" s="126">
         <v>2</v>
       </c>
-      <c r="K13" s="137" t="s">
-        <v>368</v>
-      </c>
-      <c r="L13" s="134" t="s">
-        <v>362</v>
+      <c r="K13" s="136" t="s">
+        <v>364</v>
+      </c>
+      <c r="L13" s="133" t="s">
+        <v>358</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="50" t="s">
-        <v>43</v>
+      <c r="N13" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="138" t="s">
-        <v>351</v>
+      <c r="B14" s="137" t="s">
+        <v>347</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="44"/>
-      <c r="F14" s="129" t="s">
-        <v>375</v>
-      </c>
-      <c r="G14" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="133" t="s">
-        <v>361</v>
-      </c>
-      <c r="I14" s="127">
+      <c r="F14" s="128" t="s">
+        <v>371</v>
+      </c>
+      <c r="G14" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" s="126">
         <v>32</v>
       </c>
-      <c r="J14" s="127">
+      <c r="J14" s="126">
         <v>2</v>
       </c>
-      <c r="K14" s="137" t="s">
-        <v>369</v>
-      </c>
-      <c r="L14" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>43</v>
+      <c r="K14" s="136" t="s">
+        <v>365</v>
+      </c>
+      <c r="L14" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="138" t="s">
-        <v>352</v>
+      <c r="B15" s="137" t="s">
+        <v>348</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="128" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="44"/>
-      <c r="F15" s="129" t="s">
-        <v>376</v>
-      </c>
-      <c r="G15" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="133" t="s">
-        <v>361</v>
-      </c>
-      <c r="I15" s="127">
+      <c r="F15" s="128" t="s">
+        <v>372</v>
+      </c>
+      <c r="G15" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="I15" s="126">
         <v>32</v>
       </c>
-      <c r="J15" s="127">
+      <c r="J15" s="126">
         <v>2</v>
       </c>
-      <c r="K15" s="137" t="s">
-        <v>370</v>
-      </c>
-      <c r="L15" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>91</v>
+      <c r="K15" s="136" t="s">
+        <v>366</v>
+      </c>
+      <c r="L15" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="138" t="s">
-        <v>355</v>
+      <c r="B16" s="137" t="s">
+        <v>351</v>
       </c>
       <c r="C16" s="41"/>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="128" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="44"/>
-      <c r="F16" s="129" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="133" t="s">
-        <v>363</v>
-      </c>
-      <c r="I16" s="127">
+      <c r="F16" s="128" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="132" t="s">
+        <v>359</v>
+      </c>
+      <c r="I16" s="126">
         <v>32</v>
       </c>
-      <c r="J16" s="127">
+      <c r="J16" s="126">
         <v>2</v>
       </c>
-      <c r="K16" s="137" t="s">
-        <v>371</v>
-      </c>
-      <c r="L16" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>91</v>
+      <c r="K16" s="136" t="s">
+        <v>367</v>
+      </c>
+      <c r="L16" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="88" t="s">
-        <v>285</v>
+      <c r="B17" s="87" t="s">
+        <v>281</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="106"/>
-      <c r="N17" s="50" t="s">
-        <v>91</v>
+      <c r="E17" s="107"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="105"/>
+      <c r="N17" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="88" t="s">
-        <v>282</v>
+      <c r="B18" s="87" t="s">
+        <v>278</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="82" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="106"/>
-      <c r="N18" s="50" t="s">
-        <v>91</v>
+      <c r="F18" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="105"/>
+      <c r="N18" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="88" t="s">
-        <v>289</v>
+      <c r="B19" s="87" t="s">
+        <v>285</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="41"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="105"/>
-      <c r="N19" s="50" t="s">
-        <v>91</v>
+      <c r="F19" s="81"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="N19" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="88" t="s">
-        <v>290</v>
+      <c r="B20" s="87" t="s">
+        <v>286</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="41"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="106"/>
-      <c r="N20" s="50" t="s">
-        <v>91</v>
+      <c r="F20" s="81"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="105"/>
+      <c r="N20" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="88" t="s">
-        <v>240</v>
+      <c r="B21" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="41"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="106"/>
-      <c r="N21" s="50" t="s">
-        <v>43</v>
+      <c r="F21" s="81"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="105"/>
+      <c r="N21" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="88" t="s">
-        <v>291</v>
+      <c r="B22" s="87" t="s">
+        <v>287</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="41"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="106"/>
-      <c r="N22" s="50" t="s">
-        <v>43</v>
+      <c r="F22" s="112"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="105"/>
+      <c r="N22" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="88" t="s">
-        <v>292</v>
+      <c r="B23" s="87" t="s">
+        <v>288</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="102"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="106"/>
-      <c r="N23" s="50" t="s">
-        <v>128</v>
+      <c r="K23" s="113"/>
+      <c r="L23" s="105"/>
+      <c r="N23" s="49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="88" t="s">
-        <v>293</v>
+      <c r="B24" s="87" t="s">
+        <v>289</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="27"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="106"/>
-      <c r="N24" s="50" t="s">
-        <v>91</v>
+      <c r="F24" s="112"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="105"/>
+      <c r="N24" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B25" s="88" t="s">
-        <v>294</v>
+      <c r="B25" s="87" t="s">
+        <v>290</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="106"/>
-      <c r="N25" s="50" t="s">
-        <v>91</v>
+      <c r="F25" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="105"/>
+      <c r="N25" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B26" s="88" t="s">
-        <v>296</v>
+      <c r="B26" s="87" t="s">
+        <v>292</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="27"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="106"/>
-      <c r="N26" s="50" t="s">
-        <v>43</v>
+      <c r="F26" s="100"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="105"/>
+      <c r="N26" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B27" s="88" t="s">
-        <v>297</v>
+      <c r="B27" s="87" t="s">
+        <v>293</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="105"/>
-      <c r="N27" s="50" t="s">
-        <v>91</v>
+      <c r="F27" s="100"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="104"/>
+      <c r="N27" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B28" s="88" t="s">
-        <v>298</v>
+      <c r="B28" s="87" t="s">
+        <v>294</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27" t="s">
@@ -15244,14 +15233,14 @@
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="41"/>
-      <c r="L28" s="106"/>
-      <c r="N28" s="50" t="s">
-        <v>43</v>
+      <c r="L28" s="105"/>
+      <c r="N28" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B29" s="88" t="s">
-        <v>299</v>
+      <c r="B29" s="87" t="s">
+        <v>295</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27" t="s">
@@ -15259,34 +15248,34 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="41"/>
-      <c r="L29" s="106"/>
-      <c r="N29" s="50" t="s">
-        <v>43</v>
+      <c r="L29" s="105"/>
+      <c r="N29" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B30" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66" t="s">
+      <c r="B30" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="116"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="50" t="s">
-        <v>43</v>
+      <c r="N30" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B31" s="92"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="3">
         <f>COUNTA(C4:C30)</f>
         <v>1</v>
@@ -15309,28 +15298,28 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B32" s="92"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
     </row>
     <row r="33" spans="3:6" ht="13.5" customHeight="1">
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="130" t="s">
-        <v>353</v>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="129" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="13.5" customHeight="1">
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
     </row>
     <row r="35" spans="3:6" ht="13.5" customHeight="1">
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
     </row>
     <row r="36" spans="3:6" ht="13.5" customHeight="1">
       <c r="C36" s="2"/>
@@ -17101,7 +17090,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -17181,555 +17170,555 @@
       <c r="B4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
+    </row>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B6" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="120" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="117">
+        <v>16</v>
+      </c>
+      <c r="I6" s="117">
+        <v>32</v>
+      </c>
+      <c r="J6" s="117">
+        <v>1</v>
+      </c>
+      <c r="K6" s="118" t="s">
+        <v>300</v>
+      </c>
+      <c r="L6" s="119" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="118" t="s">
+    </row>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B7" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="120"/>
-    </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B6" s="103" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="118" t="s">
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="120" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="117">
+        <v>16</v>
+      </c>
+      <c r="I7" s="117">
+        <v>32</v>
+      </c>
+      <c r="J7" s="117">
+        <v>1</v>
+      </c>
+      <c r="K7" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="L7" s="119" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B8" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="121" t="s">
-        <v>303</v>
-      </c>
-      <c r="G6" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="118">
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="120" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="117">
         <v>16</v>
       </c>
-      <c r="I6" s="118">
+      <c r="I8" s="117">
         <v>32</v>
       </c>
-      <c r="J6" s="118">
+      <c r="J8" s="117">
         <v>1</v>
       </c>
-      <c r="K6" s="119" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="120" t="s">
+      <c r="K8" s="118" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B7" s="103" t="s">
+      <c r="L8" s="119" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B9" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C9" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121" t="s">
-        <v>303</v>
-      </c>
-      <c r="G7" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="118">
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="120" t="s">
+        <v>299</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="117">
         <v>16</v>
       </c>
-      <c r="I7" s="118">
+      <c r="I9" s="117">
         <v>32</v>
       </c>
-      <c r="J7" s="118">
+      <c r="J9" s="117">
         <v>1</v>
       </c>
-      <c r="K7" s="119" t="s">
+      <c r="K9" s="118" t="s">
         <v>307</v>
       </c>
-      <c r="L7" s="120" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B8" s="103" t="s">
+      <c r="L9" s="119" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B10" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C10" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="121" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="118">
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="120" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="117">
         <v>16</v>
       </c>
-      <c r="I8" s="118">
+      <c r="I10" s="117">
         <v>32</v>
       </c>
-      <c r="J8" s="118">
+      <c r="J10" s="117">
         <v>1</v>
       </c>
-      <c r="K8" s="119" t="s">
+      <c r="K10" s="118" t="s">
+        <v>310</v>
+      </c>
+      <c r="L10" s="119" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B11" s="102" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="120" t="s">
         <v>309</v>
       </c>
-      <c r="L8" s="120" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B9" s="103" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="122" t="s">
+      <c r="G11" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="117">
+        <v>16</v>
+      </c>
+      <c r="I11" s="117">
+        <v>32</v>
+      </c>
+      <c r="J11" s="117">
+        <v>1</v>
+      </c>
+      <c r="K11" s="118" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" s="119" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B12" s="102" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="121" t="s">
-        <v>303</v>
-      </c>
-      <c r="G9" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="118">
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="120" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="117">
         <v>16</v>
       </c>
-      <c r="I9" s="118">
+      <c r="I12" s="117">
         <v>32</v>
       </c>
-      <c r="J9" s="118">
+      <c r="J12" s="117">
         <v>1</v>
       </c>
-      <c r="K9" s="119" t="s">
+      <c r="K12" s="118" t="s">
+        <v>315</v>
+      </c>
+      <c r="L12" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="L9" s="120" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B10" s="103" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="118" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B13" s="102" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="121" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="118">
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="120" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="117">
         <v>16</v>
       </c>
-      <c r="I10" s="118">
+      <c r="I13" s="117">
         <v>32</v>
       </c>
-      <c r="J10" s="118">
+      <c r="J13" s="117">
         <v>1</v>
       </c>
-      <c r="K10" s="119" t="s">
-        <v>314</v>
-      </c>
-      <c r="L10" s="120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B11" s="103" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="118" t="s">
+      <c r="K13" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="L13" s="119" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B14" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="121" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="118">
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="120" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="117">
         <v>16</v>
       </c>
-      <c r="I11" s="118">
+      <c r="I14" s="117">
         <v>32</v>
       </c>
-      <c r="J11" s="118">
+      <c r="J14" s="117">
         <v>1</v>
       </c>
-      <c r="K11" s="119" t="s">
-        <v>317</v>
-      </c>
-      <c r="L11" s="120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B12" s="103" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" s="118" t="s">
+      <c r="K14" s="118" t="s">
+        <v>321</v>
+      </c>
+      <c r="L14" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B15" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="121" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="118">
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="120" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="117">
         <v>16</v>
       </c>
-      <c r="I12" s="118">
+      <c r="I15" s="117">
         <v>32</v>
       </c>
-      <c r="J12" s="118">
+      <c r="J15" s="117">
         <v>1</v>
       </c>
-      <c r="K12" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="L12" s="120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B13" s="103" t="s">
+      <c r="K15" s="118" t="s">
+        <v>324</v>
+      </c>
+      <c r="L15" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B16" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="120" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="G16" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="117">
+        <v>16</v>
+      </c>
+      <c r="I16" s="117">
+        <v>32</v>
+      </c>
+      <c r="J16" s="117">
+        <v>1</v>
+      </c>
+      <c r="K16" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="L16" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B17" s="102" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="121" t="s">
-        <v>321</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="118">
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="120" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="117">
         <v>16</v>
       </c>
-      <c r="I13" s="118">
+      <c r="I17" s="117">
         <v>32</v>
       </c>
-      <c r="J13" s="118">
+      <c r="J17" s="117">
         <v>1</v>
       </c>
-      <c r="K13" s="119" t="s">
+      <c r="K17" s="118" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="119" t="s">
         <v>322</v>
       </c>
-      <c r="L13" s="120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B14" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="118" t="s">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B18" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="121" t="s">
-        <v>324</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="118">
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="117">
         <v>16</v>
       </c>
-      <c r="I14" s="118">
+      <c r="I18" s="117">
         <v>32</v>
       </c>
-      <c r="J14" s="118">
+      <c r="J18" s="117">
         <v>1</v>
       </c>
-      <c r="K14" s="119" t="s">
-        <v>325</v>
-      </c>
-      <c r="L14" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B15" s="103" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="121" t="s">
-        <v>324</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="118">
-        <v>16</v>
-      </c>
-      <c r="I15" s="118">
-        <v>32</v>
-      </c>
-      <c r="J15" s="118">
-        <v>1</v>
-      </c>
-      <c r="K15" s="119" t="s">
-        <v>328</v>
-      </c>
-      <c r="L15" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B16" s="103" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="121" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="118">
-        <v>16</v>
-      </c>
-      <c r="I16" s="118">
-        <v>32</v>
-      </c>
-      <c r="J16" s="118">
-        <v>1</v>
-      </c>
-      <c r="K16" s="119" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="103" t="s">
+      <c r="K18" s="118" t="s">
         <v>331</v>
       </c>
-      <c r="C17" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="121" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="118">
-        <v>16</v>
-      </c>
-      <c r="I17" s="118">
-        <v>32</v>
-      </c>
-      <c r="J17" s="118">
-        <v>1</v>
-      </c>
-      <c r="K17" s="119" t="s">
-        <v>332</v>
-      </c>
-      <c r="L17" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B18" s="103" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="121" t="s">
-        <v>334</v>
-      </c>
-      <c r="G18" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="118">
-        <v>16</v>
-      </c>
-      <c r="I18" s="118">
-        <v>32</v>
-      </c>
-      <c r="J18" s="118">
-        <v>1</v>
-      </c>
-      <c r="K18" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="L18" s="120" t="s">
-        <v>234</v>
+      <c r="L18" s="119" t="s">
+        <v>230</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="31"/>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="102" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="G19" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="117">
+        <v>16</v>
+      </c>
+      <c r="I19" s="117">
+        <v>32</v>
+      </c>
+      <c r="J19" s="117">
+        <v>1</v>
+      </c>
+      <c r="K19" s="118" t="s">
+        <v>333</v>
+      </c>
+      <c r="L19" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B20" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="117">
+        <v>16</v>
+      </c>
+      <c r="I20" s="117">
+        <v>32</v>
+      </c>
+      <c r="J20" s="117">
+        <v>1</v>
+      </c>
+      <c r="K20" s="118" t="s">
+        <v>335</v>
+      </c>
+      <c r="L20" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B21" s="102" t="s">
         <v>336</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C21" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="121" t="s">
-        <v>334</v>
-      </c>
-      <c r="G19" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="118">
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="G21" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="117">
         <v>16</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I21" s="117">
         <v>32</v>
       </c>
-      <c r="J19" s="118">
+      <c r="J21" s="117">
         <v>1</v>
       </c>
-      <c r="K19" s="119" t="s">
+      <c r="K21" s="118" t="s">
         <v>337</v>
       </c>
-      <c r="L19" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B20" s="103" t="s">
+      <c r="L21" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B22" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C22" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="121" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="118">
-        <v>16</v>
-      </c>
-      <c r="I20" s="118">
-        <v>32</v>
-      </c>
-      <c r="J20" s="118">
-        <v>1</v>
-      </c>
-      <c r="K20" s="119" t="s">
-        <v>339</v>
-      </c>
-      <c r="L20" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B21" s="103" t="s">
-        <v>340</v>
-      </c>
-      <c r="C21" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="121" t="s">
-        <v>334</v>
-      </c>
-      <c r="G21" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="118">
-        <v>16</v>
-      </c>
-      <c r="I21" s="118">
-        <v>32</v>
-      </c>
-      <c r="J21" s="118">
-        <v>1</v>
-      </c>
-      <c r="K21" s="119" t="s">
-        <v>341</v>
-      </c>
-      <c r="L21" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B22" s="56" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="126"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
@@ -17744,7 +17733,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="128"/>
+      <c r="F24" s="127"/>
     </row>
     <row r="25" spans="2:14" ht="13.5" customHeight="1">
       <c r="C25" s="2"/>

--- a/Material de Sonido/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
+++ b/Material de Sonido/Tablas de sonido/Tabla_metadatos_no_lineal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="27495" windowHeight="10935" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="27495" windowHeight="10935" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -913,9 +913,6 @@
     <t>Tabla de metadatos - Voces</t>
   </si>
   <si>
-    <t>SFX/Derrota del jugador/comentario de la muerte</t>
-  </si>
-  <si>
     <t>SFX/Personaje femenino grito muerte/MuerteGritoF1.mp3</t>
   </si>
   <si>
@@ -1160,6 +1157,9 @@
   </si>
   <si>
     <t>Cancion compuesta con flstudio</t>
+  </si>
+  <si>
+    <t>SFX/Boss nos derrota/comentario de la muerte</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2501,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="138" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
@@ -2512,7 +2512,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="13.5" customHeight="1">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="139" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="13.5" customHeight="1">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="13.5" customHeight="1">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="129" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
@@ -3705,7 +3705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3841,7 +3841,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>34</v>
@@ -3886,7 +3886,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
@@ -3931,7 +3931,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>34</v>
@@ -4075,7 +4075,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>34</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
@@ -5670,10 +5670,10 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="135" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="44" t="s">
         <v>354</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>355</v>
       </c>
       <c r="H5" s="44">
         <v>48</v>
@@ -5688,7 +5688,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="L5" s="131" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N5" s="47" t="s">
         <v>33</v>
@@ -14594,7 +14594,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="B5" s="137" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
@@ -14602,13 +14602,13 @@
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G5" s="134" t="s">
         <v>85</v>
       </c>
       <c r="H5" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" s="126">
         <v>32</v>
@@ -14617,10 +14617,10 @@
         <v>2</v>
       </c>
       <c r="K5" s="136" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L5" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N5" s="49" t="s">
         <v>41</v>
@@ -14628,7 +14628,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="137" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41" t="s">
@@ -14636,13 +14636,13 @@
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G6" s="132" t="s">
         <v>85</v>
       </c>
       <c r="H6" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I6" s="126">
         <v>32</v>
@@ -14651,10 +14651,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="136" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L6" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N6" s="49" t="s">
         <v>41</v>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
@@ -14670,13 +14670,13 @@
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="128" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G7" s="134" t="s">
         <v>85</v>
       </c>
       <c r="H7" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="126">
         <v>32</v>
@@ -14685,10 +14685,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="136" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L7" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N7" s="49" t="s">
         <v>41</v>
@@ -14696,19 +14696,19 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="137" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G8" s="132" t="s">
         <v>85</v>
       </c>
       <c r="H8" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I8" s="126">
         <v>32</v>
@@ -14717,15 +14717,15 @@
         <v>2</v>
       </c>
       <c r="K8" s="136" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L8" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="137" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="130" t="s">
@@ -14733,13 +14733,13 @@
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="128" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G9" s="134" t="s">
         <v>85</v>
       </c>
       <c r="H9" s="132" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I9" s="126">
         <v>32</v>
@@ -14751,7 +14751,7 @@
         <v>247</v>
       </c>
       <c r="L9" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N9" s="49" t="s">
         <v>87</v>
@@ -14759,7 +14759,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="B10" s="137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41" t="s">
@@ -14767,13 +14767,13 @@
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="128" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G10" s="132" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I10" s="126">
         <v>32</v>
@@ -14782,10 +14782,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L10" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="49" t="s">
@@ -14794,7 +14794,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="137" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41" t="s">
@@ -14802,13 +14802,13 @@
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="128" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G11" s="134" t="s">
         <v>85</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I11" s="126">
         <v>32</v>
@@ -14817,10 +14817,10 @@
         <v>2</v>
       </c>
       <c r="K11" s="136" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L11" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="49" t="s">
@@ -14829,7 +14829,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="137" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41" t="s">
@@ -14837,13 +14837,13 @@
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="128" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G12" s="132" t="s">
         <v>85</v>
       </c>
       <c r="H12" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I12" s="126">
         <v>32</v>
@@ -14852,10 +14852,10 @@
         <v>2</v>
       </c>
       <c r="K12" s="136" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L12" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="49" t="s">
@@ -14864,7 +14864,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="137" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41" t="s">
@@ -14872,13 +14872,13 @@
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="128" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G13" s="132" t="s">
         <v>85</v>
       </c>
       <c r="H13" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I13" s="126">
         <v>32</v>
@@ -14887,10 +14887,10 @@
         <v>2</v>
       </c>
       <c r="K13" s="136" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L13" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="49" t="s">
@@ -14899,7 +14899,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="137" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
@@ -14907,13 +14907,13 @@
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="128" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G14" s="134" t="s">
         <v>85</v>
       </c>
       <c r="H14" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I14" s="126">
         <v>32</v>
@@ -14922,10 +14922,10 @@
         <v>2</v>
       </c>
       <c r="K14" s="136" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L14" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N14" s="49" t="s">
         <v>41</v>
@@ -14933,7 +14933,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="137" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="128" t="s">
@@ -14941,13 +14941,13 @@
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="128" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G15" s="132" t="s">
         <v>85</v>
       </c>
       <c r="H15" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I15" s="126">
         <v>32</v>
@@ -14956,10 +14956,10 @@
         <v>2</v>
       </c>
       <c r="K15" s="136" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L15" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N15" s="49" t="s">
         <v>87</v>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="137" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="128" t="s">
@@ -14975,13 +14975,13 @@
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="128" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G16" s="134" t="s">
         <v>85</v>
       </c>
       <c r="H16" s="132" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I16" s="126">
         <v>32</v>
@@ -14990,10 +14990,10 @@
         <v>2</v>
       </c>
       <c r="K16" s="136" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L16" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N16" s="49" t="s">
         <v>87</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="30" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B30" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="65" t="s">
@@ -15308,7 +15308,7 @@
       <c r="D33" s="126"/>
       <c r="E33" s="126"/>
       <c r="F33" s="129" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="13.5" customHeight="1">
@@ -17069,8 +17069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17182,8 +17182,8 @@
       <c r="L4" s="119"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B5" s="39" t="s">
-        <v>297</v>
+      <c r="B5" s="87" t="s">
+        <v>379</v>
       </c>
       <c r="C5" s="117" t="s">
         <v>18</v>
@@ -17200,7 +17200,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="B6" s="102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="117" t="s">
         <v>18</v>
@@ -17208,7 +17208,7 @@
       <c r="D6" s="117"/>
       <c r="E6" s="117"/>
       <c r="F6" s="120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G6" s="117" t="s">
         <v>34</v>
@@ -17223,15 +17223,15 @@
         <v>1</v>
       </c>
       <c r="K6" s="118" t="s">
+        <v>299</v>
+      </c>
+      <c r="L6" s="119" t="s">
         <v>300</v>
-      </c>
-      <c r="L6" s="119" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="B7" s="102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="117" t="s">
         <v>18</v>
@@ -17239,7 +17239,7 @@
       <c r="D7" s="117"/>
       <c r="E7" s="117"/>
       <c r="F7" s="120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G7" s="117" t="s">
         <v>34</v>
@@ -17254,15 +17254,15 @@
         <v>1</v>
       </c>
       <c r="K7" s="118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L7" s="119" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="B8" s="102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" s="117" t="s">
         <v>18</v>
@@ -17270,7 +17270,7 @@
       <c r="D8" s="117"/>
       <c r="E8" s="117"/>
       <c r="F8" s="120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G8" s="117" t="s">
         <v>34</v>
@@ -17285,15 +17285,15 @@
         <v>1</v>
       </c>
       <c r="K8" s="118" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L8" s="119" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="B9" s="102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="121" t="s">
         <v>18</v>
@@ -17301,7 +17301,7 @@
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G9" s="117" t="s">
         <v>34</v>
@@ -17316,15 +17316,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="118" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L9" s="119" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="B10" s="102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" s="117" t="s">
         <v>18</v>
@@ -17332,7 +17332,7 @@
       <c r="D10" s="117"/>
       <c r="E10" s="117"/>
       <c r="F10" s="120" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G10" s="117" t="s">
         <v>34</v>
@@ -17347,15 +17347,15 @@
         <v>1</v>
       </c>
       <c r="K10" s="118" t="s">
+        <v>309</v>
+      </c>
+      <c r="L10" s="119" t="s">
         <v>310</v>
-      </c>
-      <c r="L10" s="119" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="B11" s="102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" s="117" t="s">
         <v>18</v>
@@ -17363,7 +17363,7 @@
       <c r="D11" s="117"/>
       <c r="E11" s="117"/>
       <c r="F11" s="120" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="117" t="s">
         <v>34</v>
@@ -17378,15 +17378,15 @@
         <v>1</v>
       </c>
       <c r="K11" s="118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L11" s="119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="B12" s="102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="117" t="s">
         <v>18</v>
@@ -17394,7 +17394,7 @@
       <c r="D12" s="117"/>
       <c r="E12" s="117"/>
       <c r="F12" s="120" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G12" s="117" t="s">
         <v>34</v>
@@ -17409,15 +17409,15 @@
         <v>1</v>
       </c>
       <c r="K12" s="118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L12" s="119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="B13" s="102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C13" s="121" t="s">
         <v>18</v>
@@ -17425,7 +17425,7 @@
       <c r="D13" s="121"/>
       <c r="E13" s="121"/>
       <c r="F13" s="120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G13" s="117" t="s">
         <v>34</v>
@@ -17440,15 +17440,15 @@
         <v>1</v>
       </c>
       <c r="K13" s="118" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L13" s="119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="B14" s="102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C14" s="117" t="s">
         <v>18</v>
@@ -17456,7 +17456,7 @@
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
       <c r="F14" s="120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G14" s="117" t="s">
         <v>34</v>
@@ -17471,16 +17471,16 @@
         <v>1</v>
       </c>
       <c r="K14" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="L14" s="119" t="s">
         <v>321</v>
-      </c>
-      <c r="L14" s="119" t="s">
-        <v>322</v>
       </c>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C15" s="117" t="s">
         <v>18</v>
@@ -17488,7 +17488,7 @@
       <c r="D15" s="121"/>
       <c r="E15" s="121"/>
       <c r="F15" s="120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G15" s="117" t="s">
         <v>34</v>
@@ -17503,16 +17503,16 @@
         <v>1</v>
       </c>
       <c r="K15" s="118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L15" s="119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="B16" s="102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16" s="117" t="s">
         <v>18</v>
@@ -17520,7 +17520,7 @@
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G16" s="117" t="s">
         <v>34</v>
@@ -17535,16 +17535,16 @@
         <v>1</v>
       </c>
       <c r="K16" s="118" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L16" s="119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" customHeight="1">
       <c r="B17" s="102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C17" s="121" t="s">
         <v>18</v>
@@ -17552,7 +17552,7 @@
       <c r="D17" s="121"/>
       <c r="E17" s="121"/>
       <c r="F17" s="120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G17" s="117" t="s">
         <v>34</v>
@@ -17567,16 +17567,16 @@
         <v>1</v>
       </c>
       <c r="K17" s="118" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L17" s="119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="102" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C18" s="117" t="s">
         <v>18</v>
@@ -17584,7 +17584,7 @@
       <c r="D18" s="121"/>
       <c r="E18" s="121"/>
       <c r="F18" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G18" s="117" t="s">
         <v>34</v>
@@ -17599,7 +17599,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="118" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L18" s="119" t="s">
         <v>230</v>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C19" s="117" t="s">
         <v>18</v>
@@ -17617,7 +17617,7 @@
       <c r="D19" s="121"/>
       <c r="E19" s="121"/>
       <c r="F19" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G19" s="117" t="s">
         <v>34</v>
@@ -17632,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="118" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L19" s="119" t="s">
         <v>230</v>
@@ -17641,7 +17641,7 @@
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="102" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C20" s="117" t="s">
         <v>18</v>
@@ -17649,7 +17649,7 @@
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
       <c r="F20" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G20" s="117" t="s">
         <v>34</v>
@@ -17664,7 +17664,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="118" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L20" s="119" t="s">
         <v>230</v>
@@ -17673,7 +17673,7 @@
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="102" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C21" s="121" t="s">
         <v>18</v>
@@ -17681,7 +17681,7 @@
       <c r="D21" s="121"/>
       <c r="E21" s="121"/>
       <c r="F21" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G21" s="117" t="s">
         <v>34</v>
@@ -17696,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="118" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L21" s="119" t="s">
         <v>230</v>
@@ -17705,7 +17705,7 @@
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C22" s="122" t="s">
         <v>18</v>
